--- a/Code/Results/Cases/Case_0_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.74751847437284</v>
+        <v>5.74751847437301</v>
       </c>
       <c r="D2">
-        <v>10.39610271866287</v>
+        <v>10.39610271866299</v>
       </c>
       <c r="E2">
-        <v>34.22349347535978</v>
+        <v>34.22349347535991</v>
       </c>
       <c r="F2">
-        <v>70.95414375096874</v>
+        <v>70.95414375096914</v>
       </c>
       <c r="G2">
-        <v>57.59563369667369</v>
+        <v>57.59563369667403</v>
       </c>
       <c r="H2">
-        <v>53.08252200506372</v>
+        <v>53.08252200506407</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -441,19 +441,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.243696362850166</v>
+        <v>5.243696362850206</v>
       </c>
       <c r="D3">
-        <v>9.480760938380957</v>
+        <v>9.480760938380881</v>
       </c>
       <c r="E3">
-        <v>31.08888539219514</v>
+        <v>31.08888539219511</v>
       </c>
       <c r="F3">
-        <v>64.81383324452482</v>
+        <v>64.81383324452484</v>
       </c>
       <c r="G3">
-        <v>52.59025013853291</v>
+        <v>52.59025013853294</v>
       </c>
       <c r="H3">
         <v>48.47430019887718</v>
@@ -470,22 +470,22 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4.93640691129116</v>
+        <v>4.936406911291201</v>
       </c>
       <c r="D4">
-        <v>8.920085406541174</v>
+        <v>8.920085406541238</v>
       </c>
       <c r="E4">
-        <v>29.18476846826967</v>
+        <v>29.18476846826963</v>
       </c>
       <c r="F4">
-        <v>61.0336447474135</v>
+        <v>61.03364474741366</v>
       </c>
       <c r="G4">
-        <v>49.50816198065151</v>
+        <v>49.50816198065166</v>
       </c>
       <c r="H4">
-        <v>45.63551162784745</v>
+        <v>45.63551162784761</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -499,22 +499,22 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.810847760163918</v>
+        <v>4.810847760163799</v>
       </c>
       <c r="D5">
-        <v>8.690497876444926</v>
+        <v>8.690497876445002</v>
       </c>
       <c r="E5">
-        <v>28.4081531385187</v>
+        <v>28.40815313851888</v>
       </c>
       <c r="F5">
-        <v>59.48247884211369</v>
+        <v>59.48247884211405</v>
       </c>
       <c r="G5">
-        <v>48.24318800893933</v>
+        <v>48.24318800893963</v>
       </c>
       <c r="H5">
-        <v>44.47011927539235</v>
+        <v>44.4701192753927</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -528,22 +528,22 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.789958290114465</v>
+        <v>4.789958290114479</v>
       </c>
       <c r="D6">
-        <v>8.652273796307423</v>
+        <v>8.652273796307108</v>
       </c>
       <c r="E6">
-        <v>28.27901884894072</v>
+        <v>28.27901884894058</v>
       </c>
       <c r="F6">
-        <v>59.22406873552558</v>
+        <v>59.22406873552519</v>
       </c>
       <c r="G6">
-        <v>48.0324356098693</v>
+        <v>48.03243560986887</v>
       </c>
       <c r="H6">
-        <v>44.27594210841834</v>
+        <v>44.27594210841793</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -557,22 +557,22 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4.934715877751048</v>
+        <v>4.934715877751142</v>
       </c>
       <c r="D7">
-        <v>8.916995193275874</v>
+        <v>8.916995193275824</v>
       </c>
       <c r="E7">
-        <v>29.17430388671545</v>
+        <v>29.17430388671531</v>
       </c>
       <c r="F7">
-        <v>61.01277755846758</v>
+        <v>61.01277755846728</v>
       </c>
       <c r="G7">
-        <v>49.49114603334383</v>
+        <v>49.49114603334358</v>
       </c>
       <c r="H7">
-        <v>45.61983628123528</v>
+        <v>45.61983628123502</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5.572762622014266</v>
+        <v>5.572762622014003</v>
       </c>
       <c r="D8">
-        <v>10.0791827688262</v>
+        <v>10.07918276882606</v>
       </c>
       <c r="E8">
-        <v>33.13422839312028</v>
+        <v>33.13422839312029</v>
       </c>
       <c r="F8">
-        <v>68.8331973586175</v>
+        <v>68.83319735861728</v>
       </c>
       <c r="G8">
-        <v>55.86675543666556</v>
+        <v>55.86675543666533</v>
       </c>
       <c r="H8">
-        <v>51.49111396036901</v>
+        <v>51.49111396036884</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -615,22 +615,22 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>6.903879728943964</v>
+        <v>6.903879728944057</v>
       </c>
       <c r="D9">
-        <v>12.47546344326255</v>
+        <v>12.47546344326261</v>
       </c>
       <c r="E9">
-        <v>41.50282435797683</v>
+        <v>41.502824357977</v>
       </c>
       <c r="F9">
-        <v>84.6927766361343</v>
+        <v>84.69277663613485</v>
       </c>
       <c r="G9">
-        <v>68.79848430731337</v>
+        <v>68.79848430731381</v>
       </c>
       <c r="H9">
-        <v>63.38648605500718</v>
+        <v>63.38648605500762</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -644,22 +644,22 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>8.132625766565015</v>
+        <v>8.132625766565059</v>
       </c>
       <c r="D10">
-        <v>14.64138413818619</v>
+        <v>14.64138413818627</v>
       </c>
       <c r="E10">
-        <v>49.45556715927636</v>
+        <v>49.45556715927646</v>
       </c>
       <c r="F10">
-        <v>98.52944464021328</v>
+        <v>98.52944464021344</v>
       </c>
       <c r="G10">
-        <v>80.10210686948301</v>
+        <v>80.10210686948319</v>
       </c>
       <c r="H10">
-        <v>73.76503443761338</v>
+        <v>73.76503443761354</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -673,22 +673,22 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>8.940423327028451</v>
+        <v>8.940423327028428</v>
       </c>
       <c r="D11">
-        <v>16.03049873061064</v>
+        <v>16.03049873061046</v>
       </c>
       <c r="E11">
-        <v>54.9049470163686</v>
+        <v>54.90494701636823</v>
       </c>
       <c r="F11">
-        <v>107.0211188771552</v>
+        <v>107.0211188771547</v>
       </c>
       <c r="G11">
-        <v>87.06099443237166</v>
+        <v>87.06099443237116</v>
       </c>
       <c r="H11">
-        <v>80.14082243731994</v>
+        <v>80.1408224373195</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -702,22 +702,22 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.392488147924482</v>
+        <v>9.392488147924389</v>
       </c>
       <c r="D12">
-        <v>16.79160425325389</v>
+        <v>16.79160425325373</v>
       </c>
       <c r="E12">
-        <v>58.08092282034705</v>
+        <v>58.0809228203467</v>
       </c>
       <c r="F12">
-        <v>111.4993461332106</v>
+        <v>111.49934613321</v>
       </c>
       <c r="G12">
-        <v>90.74198532349037</v>
+        <v>90.74198532348986</v>
       </c>
       <c r="H12">
-        <v>83.50709663085955</v>
+        <v>83.50709663085914</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -731,22 +731,22 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9.279949119771807</v>
+        <v>9.279949119771661</v>
       </c>
       <c r="D13">
-        <v>16.60339837503859</v>
+        <v>16.60339837503822</v>
       </c>
       <c r="E13">
-        <v>57.27943700058454</v>
+        <v>57.27943700058427</v>
       </c>
       <c r="F13">
-        <v>110.405399957744</v>
+        <v>110.4053999577433</v>
       </c>
       <c r="G13">
-        <v>89.84188340530326</v>
+        <v>89.84188340530275</v>
       </c>
       <c r="H13">
-        <v>82.68445012245631</v>
+        <v>82.68445012245581</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -760,13 +760,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>8.972342181240903</v>
+        <v>8.972342181240954</v>
       </c>
       <c r="D14">
-        <v>16.08466429020259</v>
+        <v>16.08466429020245</v>
       </c>
       <c r="E14">
-        <v>55.12564823980074</v>
+        <v>55.12564823980065</v>
       </c>
       <c r="F14">
         <v>107.3443837665439</v>
@@ -775,7 +775,7 @@
         <v>87.32640385664084</v>
       </c>
       <c r="H14">
-        <v>80.38370947308567</v>
+        <v>80.38370947308564</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>8.812208694807065</v>
+        <v>8.812208694807067</v>
       </c>
       <c r="D15">
-        <v>15.81231842386666</v>
+        <v>15.81231842386658</v>
       </c>
       <c r="E15">
-        <v>54.02315522954072</v>
+        <v>54.02315522954043</v>
       </c>
       <c r="F15">
-        <v>105.712477235674</v>
+        <v>105.7124772356736</v>
       </c>
       <c r="G15">
-        <v>85.98699062321442</v>
+        <v>85.98699062321406</v>
       </c>
       <c r="H15">
-        <v>79.15771798129943</v>
+        <v>79.15771798129903</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>8.088784572059028</v>
+        <v>8.088784572059025</v>
       </c>
       <c r="D16">
-        <v>14.56509209538456</v>
+        <v>14.56509209538451</v>
       </c>
       <c r="E16">
-        <v>49.16602503212098</v>
+        <v>49.16602503212086</v>
       </c>
       <c r="F16">
-        <v>98.0530775120933</v>
+        <v>98.05307751209311</v>
       </c>
       <c r="G16">
-        <v>79.7123434454674</v>
+        <v>79.71234344546723</v>
       </c>
       <c r="H16">
-        <v>73.4075667987325</v>
+        <v>73.40756679873238</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>7.730846906875592</v>
+        <v>7.730846906875617</v>
       </c>
       <c r="D17">
-        <v>13.93922054951708</v>
+        <v>13.93922054951718</v>
       </c>
       <c r="E17">
-        <v>46.82065558632846</v>
+        <v>46.82065558632856</v>
       </c>
       <c r="F17">
-        <v>94.11157440349814</v>
+        <v>94.11157440349855</v>
       </c>
       <c r="G17">
-        <v>76.48935855235693</v>
+        <v>76.48935855235732</v>
       </c>
       <c r="H17">
-        <v>70.45042138123966</v>
+        <v>70.45042138124003</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -876,22 +876,22 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>7.541687226616195</v>
+        <v>7.541687226616375</v>
       </c>
       <c r="D18">
-        <v>13.60645527652454</v>
+        <v>13.60645527652465</v>
       </c>
       <c r="E18">
-        <v>45.59311529725329</v>
+        <v>45.5931152972534</v>
       </c>
       <c r="F18">
-        <v>91.9933287813149</v>
+        <v>91.99332878131501</v>
       </c>
       <c r="G18">
-        <v>74.75853145102469</v>
+        <v>74.75853145102484</v>
       </c>
       <c r="H18">
-        <v>68.8615338200448</v>
+        <v>68.8615338200449</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -905,22 +905,22 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>7.479811051811815</v>
+        <v>7.479811051811813</v>
       </c>
       <c r="D19">
-        <v>13.49732288715728</v>
+        <v>13.49732288715734</v>
       </c>
       <c r="E19">
-        <v>45.19316318652017</v>
+        <v>45.19316318652047</v>
       </c>
       <c r="F19">
-        <v>91.2954733557014</v>
+        <v>91.29547335570234</v>
       </c>
       <c r="G19">
-        <v>74.18848164263191</v>
+        <v>74.18848164263264</v>
       </c>
       <c r="H19">
-        <v>68.33811622156908</v>
+        <v>68.33811622156976</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -934,22 +934,22 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>7.767029616975947</v>
+        <v>7.767029616976161</v>
       </c>
       <c r="D20">
-        <v>14.002719801688</v>
+        <v>14.00271980168804</v>
       </c>
       <c r="E20">
-        <v>47.05634209987551</v>
+        <v>47.05634209987564</v>
       </c>
       <c r="F20">
-        <v>94.51407251833407</v>
+        <v>94.51407251833439</v>
       </c>
       <c r="G20">
-        <v>76.81833517251023</v>
+        <v>76.81833517251047</v>
       </c>
       <c r="H20">
-        <v>70.75235754201766</v>
+        <v>70.75235754201789</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -963,22 +963,22 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>9.055577389828589</v>
+        <v>9.055577389828503</v>
       </c>
       <c r="D21">
-        <v>16.22562174397234</v>
+        <v>16.22562174397239</v>
       </c>
       <c r="E21">
-        <v>55.70351168657808</v>
+        <v>55.70351168657838</v>
       </c>
       <c r="F21">
-        <v>108.1825081625345</v>
+        <v>108.1825081625348</v>
       </c>
       <c r="G21">
-        <v>88.01473259339771</v>
+        <v>88.01473259339797</v>
       </c>
       <c r="H21">
-        <v>81.01351270771045</v>
+        <v>81.01351270771073</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -992,22 +992,22 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>9.055577389828589</v>
+        <v>9.055577389828503</v>
       </c>
       <c r="D22">
-        <v>16.22562174397234</v>
+        <v>16.22562174397239</v>
       </c>
       <c r="E22">
-        <v>55.70351168657808</v>
+        <v>55.70351168657838</v>
       </c>
       <c r="F22">
-        <v>108.1825081625345</v>
+        <v>108.1825081625348</v>
       </c>
       <c r="G22">
-        <v>88.01473259339771</v>
+        <v>88.01473259339797</v>
       </c>
       <c r="H22">
-        <v>81.01351270771045</v>
+        <v>81.01351270771073</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>10.8916984192856</v>
+        <v>10.8916984192857</v>
       </c>
       <c r="D23">
-        <v>19.18858600280661</v>
+        <v>19.18858600280653</v>
       </c>
       <c r="E23">
-        <v>69.94001280708555</v>
+        <v>69.94001280708562</v>
       </c>
       <c r="F23">
         <v>124.3507860233021</v>
@@ -1036,7 +1036,7 @@
         <v>101.3919269282445</v>
       </c>
       <c r="H23">
-        <v>93.19980623050662</v>
+        <v>93.19980623050658</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>12.53876290113407</v>
+        <v>12.53876290113394</v>
       </c>
       <c r="D24">
         <v>21.16034336971527</v>
       </c>
       <c r="E24">
-        <v>93.85002859314854</v>
+        <v>93.85002859314821</v>
       </c>
       <c r="F24">
-        <v>129.3487746540056</v>
+        <v>129.3487746540058</v>
       </c>
       <c r="G24">
-        <v>105.9726870565607</v>
+        <v>105.9726870565608</v>
       </c>
       <c r="H24">
-        <v>97.13921763492182</v>
+        <v>97.13921763492195</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>12.7473918712979</v>
+        <v>12.74739187129776</v>
       </c>
       <c r="D25">
-        <v>20.63978910888486</v>
+        <v>20.63978910888478</v>
       </c>
       <c r="E25">
-        <v>110.896972314812</v>
+        <v>110.8969723148124</v>
       </c>
       <c r="F25">
-        <v>119.7745515799115</v>
+        <v>119.7745515799113</v>
       </c>
       <c r="G25">
-        <v>98.5860520069435</v>
+        <v>98.58605200694333</v>
       </c>
       <c r="H25">
-        <v>90.14206767440108</v>
+        <v>90.14206767440095</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.74751847437301</v>
+        <v>5.74751847437284</v>
       </c>
       <c r="D2">
-        <v>10.39610271866299</v>
+        <v>10.39610271866287</v>
       </c>
       <c r="E2">
-        <v>34.22349347535991</v>
+        <v>34.22349347535978</v>
       </c>
       <c r="F2">
-        <v>70.95414375096914</v>
+        <v>70.95414375096874</v>
       </c>
       <c r="G2">
-        <v>57.59563369667403</v>
+        <v>57.59563369667369</v>
       </c>
       <c r="H2">
-        <v>53.08252200506407</v>
+        <v>53.08252200506372</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -441,19 +441,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.243696362850206</v>
+        <v>5.243696362850166</v>
       </c>
       <c r="D3">
-        <v>9.480760938380881</v>
+        <v>9.480760938380957</v>
       </c>
       <c r="E3">
-        <v>31.08888539219511</v>
+        <v>31.08888539219514</v>
       </c>
       <c r="F3">
-        <v>64.81383324452484</v>
+        <v>64.81383324452482</v>
       </c>
       <c r="G3">
-        <v>52.59025013853294</v>
+        <v>52.59025013853291</v>
       </c>
       <c r="H3">
         <v>48.47430019887718</v>
@@ -470,22 +470,22 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4.936406911291201</v>
+        <v>4.93640691129116</v>
       </c>
       <c r="D4">
-        <v>8.920085406541238</v>
+        <v>8.920085406541174</v>
       </c>
       <c r="E4">
-        <v>29.18476846826963</v>
+        <v>29.18476846826967</v>
       </c>
       <c r="F4">
-        <v>61.03364474741366</v>
+        <v>61.0336447474135</v>
       </c>
       <c r="G4">
-        <v>49.50816198065166</v>
+        <v>49.50816198065151</v>
       </c>
       <c r="H4">
-        <v>45.63551162784761</v>
+        <v>45.63551162784745</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -499,22 +499,22 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.810847760163799</v>
+        <v>4.810847760163918</v>
       </c>
       <c r="D5">
-        <v>8.690497876445002</v>
+        <v>8.690497876444926</v>
       </c>
       <c r="E5">
-        <v>28.40815313851888</v>
+        <v>28.4081531385187</v>
       </c>
       <c r="F5">
-        <v>59.48247884211405</v>
+        <v>59.48247884211369</v>
       </c>
       <c r="G5">
-        <v>48.24318800893963</v>
+        <v>48.24318800893933</v>
       </c>
       <c r="H5">
-        <v>44.4701192753927</v>
+        <v>44.47011927539235</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -528,22 +528,22 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.789958290114479</v>
+        <v>4.789958290114465</v>
       </c>
       <c r="D6">
-        <v>8.652273796307108</v>
+        <v>8.652273796307423</v>
       </c>
       <c r="E6">
-        <v>28.27901884894058</v>
+        <v>28.27901884894072</v>
       </c>
       <c r="F6">
-        <v>59.22406873552519</v>
+        <v>59.22406873552558</v>
       </c>
       <c r="G6">
-        <v>48.03243560986887</v>
+        <v>48.0324356098693</v>
       </c>
       <c r="H6">
-        <v>44.27594210841793</v>
+        <v>44.27594210841834</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -557,22 +557,22 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4.934715877751142</v>
+        <v>4.934715877751048</v>
       </c>
       <c r="D7">
-        <v>8.916995193275824</v>
+        <v>8.916995193275874</v>
       </c>
       <c r="E7">
-        <v>29.17430388671531</v>
+        <v>29.17430388671545</v>
       </c>
       <c r="F7">
-        <v>61.01277755846728</v>
+        <v>61.01277755846758</v>
       </c>
       <c r="G7">
-        <v>49.49114603334358</v>
+        <v>49.49114603334383</v>
       </c>
       <c r="H7">
-        <v>45.61983628123502</v>
+        <v>45.61983628123528</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5.572762622014003</v>
+        <v>5.572762622014266</v>
       </c>
       <c r="D8">
-        <v>10.07918276882606</v>
+        <v>10.0791827688262</v>
       </c>
       <c r="E8">
-        <v>33.13422839312029</v>
+        <v>33.13422839312028</v>
       </c>
       <c r="F8">
-        <v>68.83319735861728</v>
+        <v>68.8331973586175</v>
       </c>
       <c r="G8">
-        <v>55.86675543666533</v>
+        <v>55.86675543666556</v>
       </c>
       <c r="H8">
-        <v>51.49111396036884</v>
+        <v>51.49111396036901</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -615,22 +615,22 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>6.903879728944057</v>
+        <v>6.903879728943964</v>
       </c>
       <c r="D9">
-        <v>12.47546344326261</v>
+        <v>12.47546344326255</v>
       </c>
       <c r="E9">
-        <v>41.502824357977</v>
+        <v>41.50282435797683</v>
       </c>
       <c r="F9">
-        <v>84.69277663613485</v>
+        <v>84.6927766361343</v>
       </c>
       <c r="G9">
-        <v>68.79848430731381</v>
+        <v>68.79848430731337</v>
       </c>
       <c r="H9">
-        <v>63.38648605500762</v>
+        <v>63.38648605500718</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -644,22 +644,22 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>8.132625766565059</v>
+        <v>8.132625766565015</v>
       </c>
       <c r="D10">
-        <v>14.64138413818627</v>
+        <v>14.64138413818619</v>
       </c>
       <c r="E10">
-        <v>49.45556715927646</v>
+        <v>49.45556715927636</v>
       </c>
       <c r="F10">
-        <v>98.52944464021344</v>
+        <v>98.52944464021328</v>
       </c>
       <c r="G10">
-        <v>80.10210686948319</v>
+        <v>80.10210686948301</v>
       </c>
       <c r="H10">
-        <v>73.76503443761354</v>
+        <v>73.76503443761338</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -673,22 +673,22 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>8.940423327028428</v>
+        <v>8.940423327028451</v>
       </c>
       <c r="D11">
-        <v>16.03049873061046</v>
+        <v>16.03049873061064</v>
       </c>
       <c r="E11">
-        <v>54.90494701636823</v>
+        <v>54.9049470163686</v>
       </c>
       <c r="F11">
-        <v>107.0211188771547</v>
+        <v>107.0211188771552</v>
       </c>
       <c r="G11">
-        <v>87.06099443237116</v>
+        <v>87.06099443237166</v>
       </c>
       <c r="H11">
-        <v>80.1408224373195</v>
+        <v>80.14082243731994</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -702,22 +702,22 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.392488147924389</v>
+        <v>9.392488147924482</v>
       </c>
       <c r="D12">
-        <v>16.79160425325373</v>
+        <v>16.79160425325389</v>
       </c>
       <c r="E12">
-        <v>58.0809228203467</v>
+        <v>58.08092282034705</v>
       </c>
       <c r="F12">
-        <v>111.49934613321</v>
+        <v>111.4993461332106</v>
       </c>
       <c r="G12">
-        <v>90.74198532348986</v>
+        <v>90.74198532349037</v>
       </c>
       <c r="H12">
-        <v>83.50709663085914</v>
+        <v>83.50709663085955</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -731,22 +731,22 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9.279949119771661</v>
+        <v>9.279949119771807</v>
       </c>
       <c r="D13">
-        <v>16.60339837503822</v>
+        <v>16.60339837503859</v>
       </c>
       <c r="E13">
-        <v>57.27943700058427</v>
+        <v>57.27943700058454</v>
       </c>
       <c r="F13">
-        <v>110.4053999577433</v>
+        <v>110.405399957744</v>
       </c>
       <c r="G13">
-        <v>89.84188340530275</v>
+        <v>89.84188340530326</v>
       </c>
       <c r="H13">
-        <v>82.68445012245581</v>
+        <v>82.68445012245631</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -760,13 +760,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>8.972342181240954</v>
+        <v>8.972342181240903</v>
       </c>
       <c r="D14">
-        <v>16.08466429020245</v>
+        <v>16.08466429020259</v>
       </c>
       <c r="E14">
-        <v>55.12564823980065</v>
+        <v>55.12564823980074</v>
       </c>
       <c r="F14">
         <v>107.3443837665439</v>
@@ -775,7 +775,7 @@
         <v>87.32640385664084</v>
       </c>
       <c r="H14">
-        <v>80.38370947308564</v>
+        <v>80.38370947308567</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>8.812208694807067</v>
+        <v>8.812208694807065</v>
       </c>
       <c r="D15">
-        <v>15.81231842386658</v>
+        <v>15.81231842386666</v>
       </c>
       <c r="E15">
-        <v>54.02315522954043</v>
+        <v>54.02315522954072</v>
       </c>
       <c r="F15">
-        <v>105.7124772356736</v>
+        <v>105.712477235674</v>
       </c>
       <c r="G15">
-        <v>85.98699062321406</v>
+        <v>85.98699062321442</v>
       </c>
       <c r="H15">
-        <v>79.15771798129903</v>
+        <v>79.15771798129943</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>8.088784572059025</v>
+        <v>8.088784572059028</v>
       </c>
       <c r="D16">
-        <v>14.56509209538451</v>
+        <v>14.56509209538456</v>
       </c>
       <c r="E16">
-        <v>49.16602503212086</v>
+        <v>49.16602503212098</v>
       </c>
       <c r="F16">
-        <v>98.05307751209311</v>
+        <v>98.0530775120933</v>
       </c>
       <c r="G16">
-        <v>79.71234344546723</v>
+        <v>79.7123434454674</v>
       </c>
       <c r="H16">
-        <v>73.40756679873238</v>
+        <v>73.4075667987325</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>7.730846906875617</v>
+        <v>7.730846906875592</v>
       </c>
       <c r="D17">
-        <v>13.93922054951718</v>
+        <v>13.93922054951708</v>
       </c>
       <c r="E17">
-        <v>46.82065558632856</v>
+        <v>46.82065558632846</v>
       </c>
       <c r="F17">
-        <v>94.11157440349855</v>
+        <v>94.11157440349814</v>
       </c>
       <c r="G17">
-        <v>76.48935855235732</v>
+        <v>76.48935855235693</v>
       </c>
       <c r="H17">
-        <v>70.45042138124003</v>
+        <v>70.45042138123966</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -876,22 +876,22 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>7.541687226616375</v>
+        <v>7.541687226616195</v>
       </c>
       <c r="D18">
-        <v>13.60645527652465</v>
+        <v>13.60645527652454</v>
       </c>
       <c r="E18">
-        <v>45.5931152972534</v>
+        <v>45.59311529725329</v>
       </c>
       <c r="F18">
-        <v>91.99332878131501</v>
+        <v>91.9933287813149</v>
       </c>
       <c r="G18">
-        <v>74.75853145102484</v>
+        <v>74.75853145102469</v>
       </c>
       <c r="H18">
-        <v>68.8615338200449</v>
+        <v>68.8615338200448</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -905,22 +905,22 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>7.479811051811813</v>
+        <v>7.479811051811815</v>
       </c>
       <c r="D19">
-        <v>13.49732288715734</v>
+        <v>13.49732288715728</v>
       </c>
       <c r="E19">
-        <v>45.19316318652047</v>
+        <v>45.19316318652017</v>
       </c>
       <c r="F19">
-        <v>91.29547335570234</v>
+        <v>91.2954733557014</v>
       </c>
       <c r="G19">
-        <v>74.18848164263264</v>
+        <v>74.18848164263191</v>
       </c>
       <c r="H19">
-        <v>68.33811622156976</v>
+        <v>68.33811622156908</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -934,22 +934,22 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>7.767029616976161</v>
+        <v>7.767029616975947</v>
       </c>
       <c r="D20">
-        <v>14.00271980168804</v>
+        <v>14.002719801688</v>
       </c>
       <c r="E20">
-        <v>47.05634209987564</v>
+        <v>47.05634209987551</v>
       </c>
       <c r="F20">
-        <v>94.51407251833439</v>
+        <v>94.51407251833407</v>
       </c>
       <c r="G20">
-        <v>76.81833517251047</v>
+        <v>76.81833517251023</v>
       </c>
       <c r="H20">
-        <v>70.75235754201789</v>
+        <v>70.75235754201766</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -963,22 +963,22 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>9.055577389828503</v>
+        <v>9.055577389828589</v>
       </c>
       <c r="D21">
-        <v>16.22562174397239</v>
+        <v>16.22562174397234</v>
       </c>
       <c r="E21">
-        <v>55.70351168657838</v>
+        <v>55.70351168657808</v>
       </c>
       <c r="F21">
-        <v>108.1825081625348</v>
+        <v>108.1825081625345</v>
       </c>
       <c r="G21">
-        <v>88.01473259339797</v>
+        <v>88.01473259339771</v>
       </c>
       <c r="H21">
-        <v>81.01351270771073</v>
+        <v>81.01351270771045</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -992,22 +992,22 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>9.055577389828503</v>
+        <v>9.055577389828589</v>
       </c>
       <c r="D22">
-        <v>16.22562174397239</v>
+        <v>16.22562174397234</v>
       </c>
       <c r="E22">
-        <v>55.70351168657838</v>
+        <v>55.70351168657808</v>
       </c>
       <c r="F22">
-        <v>108.1825081625348</v>
+        <v>108.1825081625345</v>
       </c>
       <c r="G22">
-        <v>88.01473259339797</v>
+        <v>88.01473259339771</v>
       </c>
       <c r="H22">
-        <v>81.01351270771073</v>
+        <v>81.01351270771045</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>10.8916984192857</v>
+        <v>10.8916984192856</v>
       </c>
       <c r="D23">
-        <v>19.18858600280653</v>
+        <v>19.18858600280661</v>
       </c>
       <c r="E23">
-        <v>69.94001280708562</v>
+        <v>69.94001280708555</v>
       </c>
       <c r="F23">
         <v>124.3507860233021</v>
@@ -1036,7 +1036,7 @@
         <v>101.3919269282445</v>
       </c>
       <c r="H23">
-        <v>93.19980623050658</v>
+        <v>93.19980623050662</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>12.53876290113394</v>
+        <v>12.53876290113407</v>
       </c>
       <c r="D24">
         <v>21.16034336971527</v>
       </c>
       <c r="E24">
-        <v>93.85002859314821</v>
+        <v>93.85002859314854</v>
       </c>
       <c r="F24">
-        <v>129.3487746540058</v>
+        <v>129.3487746540056</v>
       </c>
       <c r="G24">
-        <v>105.9726870565608</v>
+        <v>105.9726870565607</v>
       </c>
       <c r="H24">
-        <v>97.13921763492195</v>
+        <v>97.13921763492182</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>12.74739187129776</v>
+        <v>12.7473918712979</v>
       </c>
       <c r="D25">
-        <v>20.63978910888478</v>
+        <v>20.63978910888486</v>
       </c>
       <c r="E25">
-        <v>110.8969723148124</v>
+        <v>110.896972314812</v>
       </c>
       <c r="F25">
-        <v>119.7745515799113</v>
+        <v>119.7745515799115</v>
       </c>
       <c r="G25">
-        <v>98.58605200694333</v>
+        <v>98.5860520069435</v>
       </c>
       <c r="H25">
-        <v>90.14206767440095</v>
+        <v>90.14206767440108</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,700 +406,775 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.74751847437284</v>
+        <v>5.73582094348042</v>
       </c>
       <c r="D2">
-        <v>10.39610271866287</v>
+        <v>10.37988203522536</v>
       </c>
       <c r="E2">
-        <v>34.22349347535978</v>
+        <v>34.21460609539123</v>
       </c>
       <c r="F2">
-        <v>70.95414375096874</v>
+        <v>70.88446207260229</v>
       </c>
       <c r="G2">
-        <v>57.59563369667369</v>
+        <v>57.67665518733245</v>
       </c>
       <c r="H2">
-        <v>53.08252200506372</v>
+        <v>57.26772616534434</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>53.02960591842574</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.243696362850166</v>
+        <v>5.233310387995084</v>
       </c>
       <c r="D3">
-        <v>9.480760938380957</v>
+        <v>9.466446265269841</v>
       </c>
       <c r="E3">
-        <v>31.08888539219514</v>
+        <v>31.08257177503781</v>
       </c>
       <c r="F3">
-        <v>64.81383324452482</v>
+        <v>64.75325482072127</v>
       </c>
       <c r="G3">
-        <v>52.59025013853291</v>
+        <v>52.66677773548712</v>
       </c>
       <c r="H3">
-        <v>48.47430019887718</v>
+        <v>52.30735674095596</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>48.42824618916687</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4.93640691129116</v>
+        <v>4.926776570352406</v>
       </c>
       <c r="D4">
-        <v>8.920085406541174</v>
+        <v>8.906852126083107</v>
       </c>
       <c r="E4">
-        <v>29.18476846826967</v>
+        <v>29.17968313203991</v>
       </c>
       <c r="F4">
-        <v>61.0336447474135</v>
+        <v>60.9781147368602</v>
       </c>
       <c r="G4">
-        <v>49.50816198065151</v>
+        <v>49.5814706157489</v>
       </c>
       <c r="H4">
-        <v>45.63551162784745</v>
+        <v>49.25583665446596</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>45.59326504422162</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.810847760163918</v>
+        <v>4.801518450467865</v>
       </c>
       <c r="D5">
-        <v>8.690497876444926</v>
+        <v>8.677691918730359</v>
       </c>
       <c r="E5">
-        <v>28.4081531385187</v>
+        <v>28.40350884907801</v>
       </c>
       <c r="F5">
-        <v>59.48247884211369</v>
+        <v>59.42891897985</v>
       </c>
       <c r="G5">
-        <v>48.24318800893933</v>
+        <v>48.31509348922278</v>
       </c>
       <c r="H5">
-        <v>44.47011927539235</v>
+        <v>48.0041932013649</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>44.42935900958042</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.789958290114465</v>
+        <v>4.780678673191047</v>
       </c>
       <c r="D6">
-        <v>8.652273796307423</v>
+        <v>8.639538186284842</v>
       </c>
       <c r="E6">
-        <v>28.27901884894072</v>
+        <v>28.27444481792855</v>
       </c>
       <c r="F6">
-        <v>59.22406873552558</v>
+        <v>59.17083182397278</v>
       </c>
       <c r="G6">
-        <v>48.0324356098693</v>
+        <v>48.10410307822866</v>
       </c>
       <c r="H6">
-        <v>44.27594210841834</v>
+        <v>47.79571107989332</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>44.2354255105986</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4.934715877751048</v>
+        <v>4.925089618750824</v>
       </c>
       <c r="D7">
-        <v>8.916995193275874</v>
+        <v>8.903767720612828</v>
       </c>
       <c r="E7">
-        <v>29.17430388671545</v>
+        <v>29.1692247103488</v>
       </c>
       <c r="F7">
-        <v>61.01277755846758</v>
+        <v>60.95727442035705</v>
       </c>
       <c r="G7">
-        <v>49.49114603334383</v>
+        <v>49.56443609132639</v>
       </c>
       <c r="H7">
-        <v>45.61983628123528</v>
+        <v>49.23899677003136</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>45.5776099688051</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5.572762622014266</v>
+        <v>5.561531842259672</v>
       </c>
       <c r="D8">
-        <v>10.0791827688262</v>
+        <v>10.06364453356434</v>
       </c>
       <c r="E8">
-        <v>33.13422839312028</v>
+        <v>33.12632397513136</v>
       </c>
       <c r="F8">
-        <v>68.8331973586175</v>
+        <v>68.76680378822073</v>
       </c>
       <c r="G8">
-        <v>55.86675543666556</v>
+        <v>55.94634184188927</v>
       </c>
       <c r="H8">
-        <v>51.49111396036901</v>
+        <v>55.55384622853854</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>51.4406760339395</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>6.903879728943964</v>
+        <v>6.88860350972741</v>
       </c>
       <c r="D9">
-        <v>12.47546344326255</v>
+        <v>12.45387253044886</v>
       </c>
       <c r="E9">
-        <v>41.50282435797683</v>
+        <v>41.48374129358082</v>
       </c>
       <c r="F9">
-        <v>84.6927766361343</v>
+        <v>84.59629712564907</v>
       </c>
       <c r="G9">
-        <v>68.79848430731337</v>
+        <v>68.88429859661728</v>
       </c>
       <c r="H9">
-        <v>63.38648605500718</v>
+        <v>68.38198513338719</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>63.31338341011558</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>8.132625766565015</v>
+        <v>8.111454445932607</v>
       </c>
       <c r="D10">
-        <v>14.64138413818619</v>
+        <v>14.61058654586548</v>
       </c>
       <c r="E10">
-        <v>49.45556715927636</v>
+        <v>49.40981557848787</v>
       </c>
       <c r="F10">
-        <v>98.52944464021328</v>
+        <v>98.38483057707258</v>
       </c>
       <c r="G10">
-        <v>80.10210686948301</v>
+        <v>80.17532291011828</v>
       </c>
       <c r="H10">
-        <v>73.76503443761338</v>
+        <v>79.59476046058042</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>73.65567744514976</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>8.940423327028451</v>
+        <v>8.911530987609163</v>
       </c>
       <c r="D11">
-        <v>16.03049873061064</v>
+        <v>15.98742010132233</v>
       </c>
       <c r="E11">
-        <v>54.9049470163686</v>
+        <v>54.81183500091416</v>
       </c>
       <c r="F11">
-        <v>107.0211188771552</v>
+        <v>106.8112711150648</v>
       </c>
       <c r="G11">
-        <v>87.06099443237166</v>
+        <v>87.09690220150345</v>
       </c>
       <c r="H11">
-        <v>80.14082243731994</v>
+        <v>86.47312501834161</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>79.98230036495332</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.392488147924482</v>
+        <v>9.354669899567947</v>
       </c>
       <c r="D12">
-        <v>16.79160425325389</v>
+        <v>16.73430975063386</v>
       </c>
       <c r="E12">
-        <v>58.08092282034705</v>
+        <v>57.92475007290741</v>
       </c>
       <c r="F12">
-        <v>111.4993461332106</v>
+        <v>111.2141529419314</v>
       </c>
       <c r="G12">
-        <v>90.74198532349037</v>
+        <v>90.72419344507354</v>
       </c>
       <c r="H12">
-        <v>83.50709663085955</v>
+        <v>90.07855618785838</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>83.29175091968662</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9.279949119771807</v>
+        <v>9.244972717726062</v>
       </c>
       <c r="D13">
-        <v>16.60339837503859</v>
+        <v>16.55062687180611</v>
       </c>
       <c r="E13">
-        <v>57.27943700058454</v>
+        <v>57.14392561068279</v>
       </c>
       <c r="F13">
-        <v>110.405399957744</v>
+        <v>110.1441412229481</v>
       </c>
       <c r="G13">
-        <v>89.84188340530326</v>
+        <v>89.84180777166692</v>
       </c>
       <c r="H13">
-        <v>82.68445012245631</v>
+        <v>89.20146127190503</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>82.4871583087659</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>8.972342181240903</v>
+        <v>8.942991062685742</v>
       </c>
       <c r="D14">
-        <v>16.08466429020259</v>
+        <v>16.0408544871634</v>
       </c>
       <c r="E14">
-        <v>55.12564823980074</v>
+        <v>55.02945263722271</v>
       </c>
       <c r="F14">
-        <v>107.3443837665439</v>
+        <v>107.1306524362658</v>
       </c>
       <c r="G14">
-        <v>87.32640385664084</v>
+        <v>87.35972849142549</v>
       </c>
       <c r="H14">
-        <v>80.38370947308567</v>
+        <v>86.73435506706075</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>80.22225932159698</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>8.812208694807065</v>
+        <v>8.784991427728297</v>
       </c>
       <c r="D15">
-        <v>15.81231842386666</v>
+        <v>15.77190922971188</v>
       </c>
       <c r="E15">
-        <v>54.02315522954072</v>
+        <v>53.94109883942738</v>
       </c>
       <c r="F15">
-        <v>105.712477235674</v>
+        <v>105.516813673584</v>
       </c>
       <c r="G15">
-        <v>85.98699062321442</v>
+        <v>86.03207800150217</v>
       </c>
       <c r="H15">
-        <v>79.15771798129943</v>
+        <v>85.41479433234748</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>79.00988936217158</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>8.088784572059028</v>
+        <v>8.067899884158397</v>
       </c>
       <c r="D16">
-        <v>14.56509209538456</v>
+        <v>14.53474791032725</v>
       </c>
       <c r="E16">
-        <v>49.16602503212098</v>
+        <v>49.12180937241209</v>
       </c>
       <c r="F16">
-        <v>98.0530775120933</v>
+        <v>97.91086365528867</v>
       </c>
       <c r="G16">
-        <v>79.7123434454674</v>
+        <v>79.78660774568864</v>
       </c>
       <c r="H16">
-        <v>73.4075667987325</v>
+        <v>79.20855654129868</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>73.30001801913807</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>7.730846906875592</v>
+        <v>7.712024464560447</v>
       </c>
       <c r="D17">
-        <v>13.93922054951708</v>
+        <v>13.91212582995192</v>
       </c>
       <c r="E17">
-        <v>46.82065558632846</v>
+        <v>46.78683964094596</v>
       </c>
       <c r="F17">
-        <v>94.11157440349814</v>
+        <v>93.98650314743934</v>
       </c>
       <c r="G17">
-        <v>76.48935855235693</v>
+        <v>76.57004686065659</v>
       </c>
       <c r="H17">
-        <v>70.45042138123966</v>
+        <v>76.01320959594766</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>70.35578555760264</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>7.541687226616195</v>
+        <v>7.523796537021211</v>
       </c>
       <c r="D18">
-        <v>13.60645527652454</v>
+        <v>13.58081914273571</v>
       </c>
       <c r="E18">
-        <v>45.59311529725329</v>
+        <v>45.56358457866217</v>
       </c>
       <c r="F18">
-        <v>91.9933287813149</v>
+        <v>91.87590423984885</v>
       </c>
       <c r="G18">
-        <v>74.75853145102469</v>
+        <v>74.84137679986463</v>
       </c>
       <c r="H18">
-        <v>68.8615338200448</v>
+        <v>74.29629312364047</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>68.77265724966452</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>7.479811051811815</v>
+        <v>7.462206463929057</v>
       </c>
       <c r="D19">
-        <v>13.49732288715728</v>
+        <v>13.47213310409622</v>
       </c>
       <c r="E19">
-        <v>45.19316318652017</v>
+        <v>45.16489190930776</v>
       </c>
       <c r="F19">
-        <v>91.2954733557014</v>
+        <v>91.18038074041715</v>
       </c>
       <c r="G19">
-        <v>74.18848164263191</v>
+        <v>74.27188289206008</v>
       </c>
       <c r="H19">
-        <v>68.33811622156908</v>
+        <v>73.73073060409966</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>68.25099590865275</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>7.767029616975947</v>
+        <v>7.748018043256579</v>
       </c>
       <c r="D20">
-        <v>14.002719801688</v>
+        <v>13.97532817739199</v>
       </c>
       <c r="E20">
-        <v>47.05634209987551</v>
+        <v>47.0216232261721</v>
       </c>
       <c r="F20">
-        <v>94.51407251833407</v>
+        <v>94.3874403761409</v>
       </c>
       <c r="G20">
-        <v>76.81833517251023</v>
+        <v>76.89852441992758</v>
       </c>
       <c r="H20">
-        <v>70.75235754201766</v>
+        <v>76.33948305749891</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>70.6565460588027</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>9.055577389828589</v>
+        <v>9.024937571209609</v>
       </c>
       <c r="D21">
-        <v>16.22562174397234</v>
+        <v>16.17975817498792</v>
       </c>
       <c r="E21">
-        <v>55.70351168657808</v>
+        <v>55.59854077120134</v>
       </c>
       <c r="F21">
-        <v>108.1825081625345</v>
+        <v>107.9578727757796</v>
       </c>
       <c r="G21">
-        <v>88.01473259339771</v>
+        <v>88.04066578140255</v>
       </c>
       <c r="H21">
-        <v>81.01351270771045</v>
+        <v>87.41116755550074</v>
       </c>
       <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>80.84384071163568</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>9.055577389828589</v>
+        <v>9.024937571209609</v>
       </c>
       <c r="D22">
-        <v>16.22562174397234</v>
+        <v>16.17975817498792</v>
       </c>
       <c r="E22">
-        <v>55.70351168657808</v>
+        <v>55.59854077120134</v>
       </c>
       <c r="F22">
-        <v>108.1825081625345</v>
+        <v>107.9578727757796</v>
       </c>
       <c r="G22">
-        <v>88.01473259339771</v>
+        <v>88.04066578140255</v>
       </c>
       <c r="H22">
-        <v>81.01351270771045</v>
+        <v>87.41116755550074</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>80.84384071163568</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>10.8916984192856</v>
+        <v>9.024937571209609</v>
       </c>
       <c r="D23">
-        <v>19.18858600280661</v>
+        <v>16.17975817498792</v>
       </c>
       <c r="E23">
-        <v>69.94001280708555</v>
+        <v>55.59854077120134</v>
       </c>
       <c r="F23">
-        <v>124.3507860233021</v>
+        <v>107.9578727757796</v>
       </c>
       <c r="G23">
-        <v>101.3919269282445</v>
+        <v>88.04066578140255</v>
       </c>
       <c r="H23">
-        <v>93.19980623050662</v>
+        <v>87.41116755550074</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>80.84384071163568</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>12.53876290113407</v>
+        <v>9.024937571209609</v>
       </c>
       <c r="D24">
-        <v>21.16034336971527</v>
+        <v>16.17975817498792</v>
       </c>
       <c r="E24">
-        <v>93.85002859314854</v>
+        <v>55.59854077120134</v>
       </c>
       <c r="F24">
-        <v>129.3487746540056</v>
+        <v>107.9578727757796</v>
       </c>
       <c r="G24">
-        <v>105.9726870565607</v>
+        <v>88.04066578140255</v>
       </c>
       <c r="H24">
-        <v>97.13921763492182</v>
+        <v>87.41116755550074</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>80.84384071163568</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>12.7473918712979</v>
+        <v>9.024937571209609</v>
       </c>
       <c r="D25">
-        <v>20.63978910888486</v>
+        <v>16.17975817498792</v>
       </c>
       <c r="E25">
-        <v>110.896972314812</v>
+        <v>55.59854077120134</v>
       </c>
       <c r="F25">
-        <v>119.7745515799115</v>
+        <v>107.9578727757796</v>
       </c>
       <c r="G25">
-        <v>98.5860520069435</v>
+        <v>88.04066578140255</v>
       </c>
       <c r="H25">
-        <v>90.14206767440108</v>
+        <v>87.41116755550074</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="K25">
+        <v>80.84384071163568</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,772 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>5.73582094348042</v>
+        <v>8.285667979856569</v>
       </c>
       <c r="D2">
-        <v>10.37988203522536</v>
+        <v>8.294025216729182</v>
       </c>
       <c r="E2">
-        <v>34.21460609539123</v>
+        <v>8.052280753218103</v>
       </c>
       <c r="F2">
-        <v>70.88446207260229</v>
+        <v>75.95849396750889</v>
       </c>
       <c r="G2">
-        <v>57.67665518733245</v>
+        <v>1.80448015814892</v>
       </c>
       <c r="H2">
-        <v>57.26772616534434</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>53.02960591842574</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.123005685442426</v>
+      </c>
+      <c r="K2">
+        <v>105.7128794800192</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>5.233310387995084</v>
+        <v>7.380008912984591</v>
       </c>
       <c r="D3">
-        <v>9.466446265269841</v>
+        <v>6.909555308842032</v>
       </c>
       <c r="E3">
-        <v>31.08257177503781</v>
+        <v>7.688005045557548</v>
       </c>
       <c r="F3">
-        <v>64.75325482072127</v>
+        <v>66.16315335685098</v>
       </c>
       <c r="G3">
-        <v>52.66677773548712</v>
+        <v>1.886595198639326</v>
       </c>
       <c r="H3">
-        <v>52.30735674095596</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>48.42824618916687</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.81122705947987</v>
+      </c>
+      <c r="K3">
+        <v>95.53262727943125</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>4.926776570352406</v>
+        <v>6.871993458563014</v>
       </c>
       <c r="D4">
-        <v>8.906852126083107</v>
+        <v>6.185018588225204</v>
       </c>
       <c r="E4">
-        <v>29.17968313203991</v>
+        <v>7.481399981685645</v>
       </c>
       <c r="F4">
-        <v>60.9781147368602</v>
+        <v>61.16083322417819</v>
       </c>
       <c r="G4">
-        <v>49.5814706157489</v>
+        <v>1.929859323832382</v>
       </c>
       <c r="H4">
-        <v>49.25583665446596</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>45.59326504422162</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.673755707523002</v>
+      </c>
+      <c r="K4">
+        <v>89.66006375966062</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>4.801518450467865</v>
+        <v>6.670684089215158</v>
       </c>
       <c r="D5">
-        <v>8.677691918730359</v>
+        <v>5.907962591799099</v>
       </c>
       <c r="E5">
-        <v>28.40350884907801</v>
+        <v>7.399733743920067</v>
       </c>
       <c r="F5">
-        <v>59.42891897985</v>
+        <v>59.28457344751593</v>
       </c>
       <c r="G5">
-        <v>48.31509348922278</v>
+        <v>1.946462746485442</v>
       </c>
       <c r="H5">
-        <v>48.0041932013649</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>44.42935900958042</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.626804604881354</v>
+      </c>
+      <c r="K5">
+        <v>87.30411886655</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>4.780678673191047</v>
+        <v>6.637486109666985</v>
       </c>
       <c r="D6">
-        <v>8.639538186284842</v>
+        <v>5.862814764538358</v>
       </c>
       <c r="E6">
-        <v>28.27444481792855</v>
+        <v>7.386293916806909</v>
       </c>
       <c r="F6">
-        <v>59.17083182397278</v>
+        <v>58.98118182917914</v>
       </c>
       <c r="G6">
-        <v>48.10410307822866</v>
+        <v>1.94917169625009</v>
       </c>
       <c r="H6">
-        <v>47.79571107989332</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>44.2354255105986</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.619472875488914</v>
+      </c>
+      <c r="K6">
+        <v>86.9141084271883</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>4.925089618750824</v>
+        <v>6.869260953046043</v>
       </c>
       <c r="D7">
-        <v>8.903767720612828</v>
+        <v>6.181220041467166</v>
       </c>
       <c r="E7">
-        <v>29.1692247103488</v>
+        <v>7.48028990004066</v>
       </c>
       <c r="F7">
-        <v>60.95727442035705</v>
+        <v>61.13495132167395</v>
       </c>
       <c r="G7">
-        <v>49.56443609132639</v>
+        <v>1.930086730524395</v>
       </c>
       <c r="H7">
-        <v>49.23899677003136</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>45.5776099688051</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.673089770617358</v>
+      </c>
+      <c r="K7">
+        <v>89.62819064350184</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>5.561531842259672</v>
+        <v>7.957776251700734</v>
       </c>
       <c r="D8">
-        <v>10.06364453356434</v>
+        <v>7.77875666973731</v>
       </c>
       <c r="E8">
-        <v>33.12632397513136</v>
+        <v>7.921577867733697</v>
       </c>
       <c r="F8">
-        <v>68.76680378822073</v>
+        <v>72.28844017419243</v>
       </c>
       <c r="G8">
-        <v>55.94634184188927</v>
+        <v>1.834962285217873</v>
       </c>
       <c r="H8">
-        <v>55.55384622853854</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>51.4406760339395</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.000366580246554</v>
+      </c>
+      <c r="K8">
+        <v>102.0730511756016</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>6.88860350972741</v>
+        <v>7.957776251700734</v>
       </c>
       <c r="D9">
-        <v>12.45387253044886</v>
+        <v>7.77875666973731</v>
       </c>
       <c r="E9">
-        <v>41.48374129358082</v>
+        <v>7.921577867733697</v>
       </c>
       <c r="F9">
-        <v>84.59629712564907</v>
+        <v>72.28844017419243</v>
       </c>
       <c r="G9">
-        <v>68.88429859661728</v>
+        <v>1.834962285217873</v>
       </c>
       <c r="H9">
-        <v>68.38198513338719</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>63.31338341011558</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.000366580246554</v>
+      </c>
+      <c r="K9">
+        <v>102.0730511756016</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>8.111454445932607</v>
+        <v>7.957776251700734</v>
       </c>
       <c r="D10">
-        <v>14.61058654586548</v>
+        <v>7.77875666973731</v>
       </c>
       <c r="E10">
-        <v>49.40981557848787</v>
+        <v>7.921577867733697</v>
       </c>
       <c r="F10">
-        <v>98.38483057707258</v>
+        <v>72.28844017419243</v>
       </c>
       <c r="G10">
-        <v>80.17532291011828</v>
+        <v>1.834962285217873</v>
       </c>
       <c r="H10">
-        <v>79.59476046058042</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>73.65567744514976</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.000366580246554</v>
+      </c>
+      <c r="K10">
+        <v>102.0730511756016</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>8.911530987609163</v>
+        <v>7.957776251700734</v>
       </c>
       <c r="D11">
-        <v>15.98742010132233</v>
+        <v>7.77875666973731</v>
       </c>
       <c r="E11">
-        <v>54.81183500091416</v>
+        <v>7.921577867733697</v>
       </c>
       <c r="F11">
-        <v>106.8112711150648</v>
+        <v>72.28844017419243</v>
       </c>
       <c r="G11">
-        <v>87.09690220150345</v>
+        <v>1.834962285217873</v>
       </c>
       <c r="H11">
-        <v>86.47312501834161</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>79.98230036495332</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.000366580246554</v>
+      </c>
+      <c r="K11">
+        <v>102.0730511756016</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>9.354669899567947</v>
+        <v>7.957776251700734</v>
       </c>
       <c r="D12">
-        <v>16.73430975063386</v>
+        <v>7.77875666973731</v>
       </c>
       <c r="E12">
-        <v>57.92475007290741</v>
+        <v>7.921577867733697</v>
       </c>
       <c r="F12">
-        <v>111.2141529419314</v>
+        <v>72.28844017419243</v>
       </c>
       <c r="G12">
-        <v>90.72419344507354</v>
+        <v>1.834962285217873</v>
       </c>
       <c r="H12">
-        <v>90.07855618785838</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>83.29175091968662</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.000366580246554</v>
+      </c>
+      <c r="K12">
+        <v>102.0730511756016</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>9.244972717726062</v>
+        <v>7.957776251700734</v>
       </c>
       <c r="D13">
-        <v>16.55062687180611</v>
+        <v>7.77875666973731</v>
       </c>
       <c r="E13">
-        <v>57.14392561068279</v>
+        <v>7.921577867733697</v>
       </c>
       <c r="F13">
-        <v>110.1441412229481</v>
+        <v>72.28844017419243</v>
       </c>
       <c r="G13">
-        <v>89.84180777166692</v>
+        <v>1.834962285217873</v>
       </c>
       <c r="H13">
-        <v>89.20146127190503</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>82.4871583087659</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.000366580246554</v>
+      </c>
+      <c r="K13">
+        <v>102.0730511756016</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <v>8.942991062685742</v>
+        <v>7.957776251700734</v>
       </c>
       <c r="D14">
-        <v>16.0408544871634</v>
+        <v>7.77875666973731</v>
       </c>
       <c r="E14">
-        <v>55.02945263722271</v>
+        <v>7.921577867733697</v>
       </c>
       <c r="F14">
-        <v>107.1306524362658</v>
+        <v>72.28844017419243</v>
       </c>
       <c r="G14">
-        <v>87.35972849142549</v>
+        <v>1.834962285217873</v>
       </c>
       <c r="H14">
-        <v>86.73435506706075</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>80.22225932159698</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.000366580246554</v>
+      </c>
+      <c r="K14">
+        <v>102.0730511756016</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>8.784991427728297</v>
+        <v>7.957776251700734</v>
       </c>
       <c r="D15">
-        <v>15.77190922971188</v>
+        <v>7.77875666973731</v>
       </c>
       <c r="E15">
-        <v>53.94109883942738</v>
+        <v>7.921577867733697</v>
       </c>
       <c r="F15">
-        <v>105.516813673584</v>
+        <v>72.28844017419243</v>
       </c>
       <c r="G15">
-        <v>86.03207800150217</v>
+        <v>1.834962285217873</v>
       </c>
       <c r="H15">
-        <v>85.41479433234748</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>79.00988936217158</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.000366580246554</v>
+      </c>
+      <c r="K15">
+        <v>102.0730511756016</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
-        <v>8.067899884158397</v>
+        <v>7.957776251700734</v>
       </c>
       <c r="D16">
-        <v>14.53474791032725</v>
+        <v>7.77875666973731</v>
       </c>
       <c r="E16">
-        <v>49.12180937241209</v>
+        <v>7.921577867733697</v>
       </c>
       <c r="F16">
-        <v>97.91086365528867</v>
+        <v>72.28844017419243</v>
       </c>
       <c r="G16">
-        <v>79.78660774568864</v>
+        <v>1.834962285217873</v>
       </c>
       <c r="H16">
-        <v>79.20855654129868</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>73.30001801913807</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.000366580246554</v>
+      </c>
+      <c r="K16">
+        <v>102.0730511756016</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
-        <v>7.712024464560447</v>
+        <v>7.957776251700734</v>
       </c>
       <c r="D17">
-        <v>13.91212582995192</v>
+        <v>7.77875666973731</v>
       </c>
       <c r="E17">
-        <v>46.78683964094596</v>
+        <v>7.921577867733697</v>
       </c>
       <c r="F17">
-        <v>93.98650314743934</v>
+        <v>72.28844017419243</v>
       </c>
       <c r="G17">
-        <v>76.57004686065659</v>
+        <v>1.834962285217873</v>
       </c>
       <c r="H17">
-        <v>76.01320959594766</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>70.35578555760264</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.000366580246554</v>
+      </c>
+      <c r="K17">
+        <v>102.0730511756016</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
-        <v>7.523796537021211</v>
+        <v>7.957776251700734</v>
       </c>
       <c r="D18">
-        <v>13.58081914273571</v>
+        <v>7.77875666973731</v>
       </c>
       <c r="E18">
-        <v>45.56358457866217</v>
+        <v>7.921577867733697</v>
       </c>
       <c r="F18">
-        <v>91.87590423984885</v>
+        <v>72.28844017419243</v>
       </c>
       <c r="G18">
-        <v>74.84137679986463</v>
+        <v>1.834962285217873</v>
       </c>
       <c r="H18">
-        <v>74.29629312364047</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>68.77265724966452</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.000366580246554</v>
+      </c>
+      <c r="K18">
+        <v>102.0730511756016</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <v>7.462206463929057</v>
+        <v>7.957776251700734</v>
       </c>
       <c r="D19">
-        <v>13.47213310409622</v>
+        <v>7.77875666973731</v>
       </c>
       <c r="E19">
-        <v>45.16489190930776</v>
+        <v>7.921577867733697</v>
       </c>
       <c r="F19">
-        <v>91.18038074041715</v>
+        <v>72.28844017419243</v>
       </c>
       <c r="G19">
-        <v>74.27188289206008</v>
+        <v>1.834962285217873</v>
       </c>
       <c r="H19">
-        <v>73.73073060409966</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>68.25099590865275</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.000366580246554</v>
+      </c>
+      <c r="K19">
+        <v>102.0730511756016</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
-        <v>7.748018043256579</v>
+        <v>7.957776251700734</v>
       </c>
       <c r="D20">
-        <v>13.97532817739199</v>
+        <v>7.77875666973731</v>
       </c>
       <c r="E20">
-        <v>47.0216232261721</v>
+        <v>7.921577867733697</v>
       </c>
       <c r="F20">
-        <v>94.3874403761409</v>
+        <v>72.28844017419243</v>
       </c>
       <c r="G20">
-        <v>76.89852441992758</v>
+        <v>1.834962285217873</v>
       </c>
       <c r="H20">
-        <v>76.33948305749891</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>70.6565460588027</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.000366580246554</v>
+      </c>
+      <c r="K20">
+        <v>102.0730511756016</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
-        <v>9.024937571209609</v>
+        <v>7.957776251700734</v>
       </c>
       <c r="D21">
-        <v>16.17975817498792</v>
+        <v>7.77875666973731</v>
       </c>
       <c r="E21">
-        <v>55.59854077120134</v>
+        <v>7.921577867733697</v>
       </c>
       <c r="F21">
-        <v>107.9578727757796</v>
+        <v>72.28844017419243</v>
       </c>
       <c r="G21">
-        <v>88.04066578140255</v>
+        <v>1.834962285217873</v>
       </c>
       <c r="H21">
-        <v>87.41116755550074</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>80.84384071163568</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.000366580246554</v>
+      </c>
+      <c r="K21">
+        <v>102.0730511756016</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>9.024937571209609</v>
+        <v>7.957776251700734</v>
       </c>
       <c r="D22">
-        <v>16.17975817498792</v>
+        <v>7.77875666973731</v>
       </c>
       <c r="E22">
-        <v>55.59854077120134</v>
+        <v>7.921577867733697</v>
       </c>
       <c r="F22">
-        <v>107.9578727757796</v>
+        <v>72.28844017419243</v>
       </c>
       <c r="G22">
-        <v>88.04066578140255</v>
+        <v>1.834962285217873</v>
       </c>
       <c r="H22">
-        <v>87.41116755550074</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>80.84384071163568</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.000366580246554</v>
+      </c>
+      <c r="K22">
+        <v>102.0730511756016</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
-        <v>9.024937571209609</v>
+        <v>7.957776251700734</v>
       </c>
       <c r="D23">
-        <v>16.17975817498792</v>
+        <v>7.77875666973731</v>
       </c>
       <c r="E23">
-        <v>55.59854077120134</v>
+        <v>7.921577867733697</v>
       </c>
       <c r="F23">
-        <v>107.9578727757796</v>
+        <v>72.28844017419243</v>
       </c>
       <c r="G23">
-        <v>88.04066578140255</v>
+        <v>1.834962285217873</v>
       </c>
       <c r="H23">
-        <v>87.41116755550074</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>80.84384071163568</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.000366580246554</v>
+      </c>
+      <c r="K23">
+        <v>102.0730511756016</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
-        <v>9.024937571209609</v>
+        <v>7.957776251700734</v>
       </c>
       <c r="D24">
-        <v>16.17975817498792</v>
+        <v>7.77875666973731</v>
       </c>
       <c r="E24">
-        <v>55.59854077120134</v>
+        <v>7.921577867733697</v>
       </c>
       <c r="F24">
-        <v>107.9578727757796</v>
+        <v>72.28844017419243</v>
       </c>
       <c r="G24">
-        <v>88.04066578140255</v>
+        <v>1.834962285217873</v>
       </c>
       <c r="H24">
-        <v>87.41116755550074</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>80.84384071163568</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.000366580246554</v>
+      </c>
+      <c r="K24">
+        <v>102.0730511756016</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
-        <v>9.024937571209609</v>
+        <v>7.957776251700734</v>
       </c>
       <c r="D25">
-        <v>16.17975817498792</v>
+        <v>7.77875666973731</v>
       </c>
       <c r="E25">
-        <v>55.59854077120134</v>
+        <v>7.921577867733697</v>
       </c>
       <c r="F25">
-        <v>107.9578727757796</v>
+        <v>72.28844017419243</v>
       </c>
       <c r="G25">
-        <v>88.04066578140255</v>
+        <v>1.834962285217873</v>
       </c>
       <c r="H25">
-        <v>87.41116755550074</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>80.84384071163568</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.000366580246554</v>
+      </c>
+      <c r="K25">
+        <v>102.0730511756016</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.285667979856569</v>
+        <v>4.344899037416023</v>
       </c>
       <c r="D2">
-        <v>8.294025216729182</v>
+        <v>2.294251935499454</v>
       </c>
       <c r="E2">
-        <v>8.052280753218103</v>
+        <v>6.44800794162845</v>
       </c>
       <c r="F2">
-        <v>75.95849396750889</v>
+        <v>41.21026795404587</v>
       </c>
       <c r="G2">
-        <v>1.80448015814892</v>
+        <v>2.116130960102035</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>29.18559984599681</v>
       </c>
       <c r="J2">
-        <v>7.123005685442426</v>
+        <v>5.93924870252391</v>
       </c>
       <c r="K2">
-        <v>105.7128794800192</v>
+        <v>20.50518829416707</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15.67103631791322</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.380008912984591</v>
+        <v>4.395052141869284</v>
       </c>
       <c r="D3">
-        <v>6.909555308842032</v>
+        <v>2.256297796084649</v>
       </c>
       <c r="E3">
-        <v>7.688005045557548</v>
+        <v>6.414897145105394</v>
       </c>
       <c r="F3">
-        <v>66.16315335685098</v>
+        <v>39.91999806750296</v>
       </c>
       <c r="G3">
-        <v>1.886595198639326</v>
+        <v>2.127839662330764</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>28.30484711869843</v>
       </c>
       <c r="J3">
-        <v>6.81122705947987</v>
+        <v>5.967851209965444</v>
       </c>
       <c r="K3">
-        <v>95.53262727943125</v>
+        <v>19.04057460937297</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14.91876986106988</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.871993458563014</v>
+        <v>4.42557221273753</v>
       </c>
       <c r="D4">
-        <v>6.185018588225204</v>
+        <v>2.233437629511203</v>
       </c>
       <c r="E4">
-        <v>7.481399981685645</v>
+        <v>6.397483911318784</v>
       </c>
       <c r="F4">
-        <v>61.16083322417819</v>
+        <v>39.15237238087873</v>
       </c>
       <c r="G4">
-        <v>1.929859323832382</v>
+        <v>2.135177524556898</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>27.78255138865865</v>
       </c>
       <c r="J4">
-        <v>6.673755707523002</v>
+        <v>5.987862036274493</v>
       </c>
       <c r="K4">
-        <v>89.66006375966062</v>
+        <v>18.17447066972231</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.44978475027361</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.670684089215158</v>
+        <v>4.437963299746545</v>
       </c>
       <c r="D5">
-        <v>5.907962591799099</v>
+        <v>2.22422031123118</v>
       </c>
       <c r="E5">
-        <v>7.399733743920067</v>
+        <v>6.391103215352651</v>
       </c>
       <c r="F5">
-        <v>59.28457344751593</v>
+        <v>38.84579011133093</v>
       </c>
       <c r="G5">
-        <v>1.946462746485442</v>
+        <v>2.138208283556879</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>27.57436627551711</v>
       </c>
       <c r="J5">
-        <v>6.626804604881354</v>
+        <v>5.996612775449466</v>
       </c>
       <c r="K5">
-        <v>87.30411886655</v>
+        <v>17.83415062261705</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.25709074623901</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.637486109666985</v>
+        <v>4.440018676539917</v>
       </c>
       <c r="D6">
-        <v>5.862814764538358</v>
+        <v>2.22269537755857</v>
       </c>
       <c r="E6">
-        <v>7.386293916806909</v>
+        <v>6.390086389378363</v>
       </c>
       <c r="F6">
-        <v>58.98118182917914</v>
+        <v>38.79526025230523</v>
       </c>
       <c r="G6">
-        <v>1.94917169625009</v>
+        <v>2.138714072936013</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>27.54007869386398</v>
       </c>
       <c r="J6">
-        <v>6.619472875488914</v>
+        <v>5.99810129169254</v>
       </c>
       <c r="K6">
-        <v>86.9141084271883</v>
+        <v>17.77721396459151</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.22500552072364</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.869260953046043</v>
+        <v>4.425739481148937</v>
       </c>
       <c r="D7">
-        <v>6.181220041467166</v>
+        <v>2.233312939139532</v>
       </c>
       <c r="E7">
-        <v>7.48028990004066</v>
+        <v>6.397394986232436</v>
       </c>
       <c r="F7">
-        <v>61.13495132167395</v>
+        <v>39.14821240602934</v>
       </c>
       <c r="G7">
-        <v>1.930086730524395</v>
+        <v>2.135218230406765</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>27.77972487304877</v>
       </c>
       <c r="J7">
-        <v>6.673089770617358</v>
+        <v>5.987977662734263</v>
       </c>
       <c r="K7">
-        <v>89.62819064350184</v>
+        <v>18.16990973797229</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.44719210193287</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.957776251700734</v>
+        <v>4.36226313945687</v>
       </c>
       <c r="D8">
-        <v>7.77875666973731</v>
+        <v>2.281064586004767</v>
       </c>
       <c r="E8">
-        <v>7.921577867733697</v>
+        <v>6.43597481254404</v>
       </c>
       <c r="F8">
-        <v>72.28844017419243</v>
+        <v>40.76029659673193</v>
       </c>
       <c r="G8">
-        <v>1.834962285217873</v>
+        <v>2.120139236735953</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>28.87807836508978</v>
       </c>
       <c r="J8">
-        <v>7.000366580246554</v>
+        <v>5.948590320281999</v>
       </c>
       <c r="K8">
-        <v>102.0730511756016</v>
+        <v>20.00955586153766</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>15.41323520601077</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.957776251700734</v>
+        <v>4.234458293515708</v>
       </c>
       <c r="D9">
-        <v>7.77875666973731</v>
+        <v>2.378953549838748</v>
       </c>
       <c r="E9">
-        <v>7.921577867733697</v>
+        <v>6.535633693994106</v>
       </c>
       <c r="F9">
-        <v>72.28844017419243</v>
+        <v>44.11646959362098</v>
       </c>
       <c r="G9">
-        <v>1.834962285217873</v>
+        <v>2.091591893688934</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>31.1794173588647</v>
       </c>
       <c r="J9">
-        <v>7.000366580246554</v>
+        <v>5.891751860089084</v>
       </c>
       <c r="K9">
-        <v>102.0730511756016</v>
+        <v>23.41967630909666</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>17.24476727041637</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.957776251700734</v>
+        <v>4.136705942515251</v>
       </c>
       <c r="D10">
-        <v>7.77875666973731</v>
+        <v>2.45470832030021</v>
       </c>
       <c r="E10">
-        <v>7.921577867733697</v>
+        <v>6.624769631894563</v>
       </c>
       <c r="F10">
-        <v>72.28844017419243</v>
+        <v>46.70446407511502</v>
       </c>
       <c r="G10">
-        <v>1.834962285217873</v>
+        <v>2.070994840215435</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>32.9636741639878</v>
       </c>
       <c r="J10">
-        <v>7.000366580246554</v>
+        <v>5.863929171228181</v>
       </c>
       <c r="K10">
-        <v>102.0730511756016</v>
+        <v>25.72339236699458</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>18.78312914453049</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.957776251700734</v>
+        <v>4.090918729057142</v>
       </c>
       <c r="D11">
-        <v>7.77875666973731</v>
+        <v>2.490360360047597</v>
       </c>
       <c r="E11">
-        <v>7.921577867733697</v>
+        <v>6.669091730394272</v>
       </c>
       <c r="F11">
-        <v>72.28844017419243</v>
+        <v>47.91053718039883</v>
       </c>
       <c r="G11">
-        <v>1.834962285217873</v>
+        <v>2.061642396995405</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>33.79740841155428</v>
       </c>
       <c r="J11">
-        <v>7.000366580246554</v>
+        <v>5.854681214813185</v>
       </c>
       <c r="K11">
-        <v>102.0730511756016</v>
+        <v>26.73114204137523</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>19.51420889186467</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.957776251700734</v>
+        <v>4.073343428163689</v>
       </c>
       <c r="D12">
-        <v>7.77875666973731</v>
+        <v>2.504069062636217</v>
       </c>
       <c r="E12">
-        <v>7.921577867733697</v>
+        <v>6.686447633656077</v>
       </c>
       <c r="F12">
-        <v>72.28844017419243</v>
+        <v>48.37168999937638</v>
       </c>
       <c r="G12">
-        <v>1.834962285217873</v>
+        <v>2.058097127085811</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>34.11652326050607</v>
       </c>
       <c r="J12">
-        <v>7.000366580246554</v>
+        <v>5.851706219758828</v>
       </c>
       <c r="K12">
-        <v>102.0730511756016</v>
+        <v>27.10730287602311</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>19.78704122275328</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.957776251700734</v>
+        <v>4.077139934705516</v>
       </c>
       <c r="D13">
-        <v>7.77875666973731</v>
+        <v>2.501106732848572</v>
       </c>
       <c r="E13">
-        <v>7.921577867733697</v>
+        <v>6.682683776132133</v>
       </c>
       <c r="F13">
-        <v>72.28844017419243</v>
+        <v>48.27216897697969</v>
       </c>
       <c r="G13">
-        <v>1.834962285217873</v>
+        <v>2.05886093712087</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>34.04764057802382</v>
       </c>
       <c r="J13">
-        <v>7.000366580246554</v>
+        <v>5.852322862751479</v>
       </c>
       <c r="K13">
-        <v>102.0730511756016</v>
+        <v>27.02652663944551</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>19.72845618494157</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.957776251700734</v>
+        <v>4.089477836303151</v>
       </c>
       <c r="D14">
-        <v>7.77875666973731</v>
+        <v>2.491483777579578</v>
       </c>
       <c r="E14">
-        <v>7.921577867733697</v>
+        <v>6.670507963454651</v>
       </c>
       <c r="F14">
-        <v>72.28844017419243</v>
+        <v>47.94838538354373</v>
       </c>
       <c r="G14">
-        <v>1.834962285217873</v>
+        <v>2.061350838304925</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>33.82359250237817</v>
       </c>
       <c r="J14">
-        <v>7.000366580246554</v>
+        <v>5.854425670591475</v>
       </c>
       <c r="K14">
-        <v>102.0730511756016</v>
+        <v>26.76219623153675</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>19.53673389423884</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.957776251700734</v>
+        <v>4.097002820026137</v>
       </c>
       <c r="D15">
-        <v>7.77875666973731</v>
+        <v>2.485617746137056</v>
       </c>
       <c r="E15">
-        <v>7.921577867733697</v>
+        <v>6.663125366704198</v>
       </c>
       <c r="F15">
-        <v>72.28844017419243</v>
+        <v>47.75064764687521</v>
       </c>
       <c r="G15">
-        <v>1.834962285217873</v>
+        <v>2.062875293868878</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>33.68680715550266</v>
       </c>
       <c r="J15">
-        <v>7.000366580246554</v>
+        <v>5.855783505121145</v>
       </c>
       <c r="K15">
-        <v>102.0730511756016</v>
+        <v>26.59958678854012</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>19.41878362674721</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.957776251700734</v>
+        <v>4.139667839982216</v>
       </c>
       <c r="D16">
-        <v>7.77875666973731</v>
+        <v>2.452405328876088</v>
       </c>
       <c r="E16">
-        <v>7.921577867733697</v>
+        <v>6.62195144846662</v>
       </c>
       <c r="F16">
-        <v>72.28844017419243</v>
+        <v>46.62624653271824</v>
       </c>
       <c r="G16">
-        <v>1.834962285217873</v>
+        <v>2.071605882586738</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>32.90964907737855</v>
       </c>
       <c r="J16">
-        <v>7.000366580246554</v>
+        <v>5.864605184811011</v>
       </c>
       <c r="K16">
-        <v>102.0730511756016</v>
+        <v>25.65675158260813</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>18.73477628708198</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.957776251700734</v>
+        <v>4.16547227175522</v>
       </c>
       <c r="D17">
-        <v>7.77875666973731</v>
+        <v>2.432359662359339</v>
       </c>
       <c r="E17">
-        <v>7.921577867733697</v>
+        <v>6.597678947593823</v>
       </c>
       <c r="F17">
-        <v>72.28844017419243</v>
+        <v>45.94401207433629</v>
       </c>
       <c r="G17">
-        <v>1.834962285217873</v>
+        <v>2.076962101794035</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>32.4386745635048</v>
       </c>
       <c r="J17">
-        <v>7.000366580246554</v>
+        <v>5.870914862091251</v>
       </c>
       <c r="K17">
-        <v>102.0730511756016</v>
+        <v>25.06827385068763</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>18.3077495500523</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.957776251700734</v>
+        <v>4.180193319531541</v>
       </c>
       <c r="D18">
-        <v>7.77875666973731</v>
+        <v>2.420939431883208</v>
       </c>
       <c r="E18">
-        <v>7.921577867733697</v>
+        <v>6.584071293700566</v>
       </c>
       <c r="F18">
-        <v>72.28844017419243</v>
+        <v>45.55429346228938</v>
       </c>
       <c r="G18">
-        <v>1.834962285217873</v>
+        <v>2.08004489930458</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>32.16984165673134</v>
       </c>
       <c r="J18">
-        <v>7.000366580246554</v>
+        <v>5.874862410901191</v>
       </c>
       <c r="K18">
-        <v>102.0730511756016</v>
+        <v>24.72598891893823</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>18.05933654391912</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.957776251700734</v>
+        <v>4.185158156154102</v>
       </c>
       <c r="D19">
-        <v>7.77875666973731</v>
+        <v>2.417090534139607</v>
       </c>
       <c r="E19">
-        <v>7.921577867733697</v>
+        <v>6.579523807659074</v>
       </c>
       <c r="F19">
-        <v>72.28844017419243</v>
+        <v>45.42279524782477</v>
       </c>
       <c r="G19">
-        <v>1.834962285217873</v>
+        <v>2.081089206901318</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>32.07916757047123</v>
       </c>
       <c r="J19">
-        <v>7.000366580246554</v>
+        <v>5.876252617291366</v>
       </c>
       <c r="K19">
-        <v>102.0730511756016</v>
+        <v>24.60943364550569</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>17.97474069049077</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.957776251700734</v>
+        <v>4.162738185176897</v>
       </c>
       <c r="D20">
-        <v>7.77875666973731</v>
+        <v>2.434481979401858</v>
       </c>
       <c r="E20">
-        <v>7.921577867733697</v>
+        <v>6.600226035471003</v>
       </c>
       <c r="F20">
-        <v>72.28844017419243</v>
+        <v>46.01635744782791</v>
       </c>
       <c r="G20">
-        <v>1.834962285217873</v>
+        <v>2.07639175384685</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>32.48859611764682</v>
       </c>
       <c r="J20">
-        <v>7.000366580246554</v>
+        <v>5.870209981701885</v>
       </c>
       <c r="K20">
-        <v>102.0730511756016</v>
+        <v>25.13131016519993</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>18.35349526962654</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.957776251700734</v>
+        <v>4.085860728662409</v>
       </c>
       <c r="D21">
-        <v>7.77875666973731</v>
+        <v>2.494304297883169</v>
       </c>
       <c r="E21">
-        <v>7.921577867733697</v>
+        <v>6.674068515143686</v>
       </c>
       <c r="F21">
-        <v>72.28844017419243</v>
+        <v>48.04336500401642</v>
       </c>
       <c r="G21">
-        <v>1.834962285217873</v>
+        <v>2.060619648165151</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>33.88930643458599</v>
       </c>
       <c r="J21">
-        <v>7.000366580246554</v>
+        <v>5.853793405437327</v>
       </c>
       <c r="K21">
-        <v>102.0730511756016</v>
+        <v>26.83998158665293</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>19.59315419783884</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.957776251700734</v>
+        <v>4.034210133591443</v>
       </c>
       <c r="D22">
-        <v>7.77875666973731</v>
+        <v>2.534636758074781</v>
       </c>
       <c r="E22">
-        <v>7.921577867733697</v>
+        <v>6.725679971793026</v>
       </c>
       <c r="F22">
-        <v>72.28844017419243</v>
+        <v>49.39423658005913</v>
       </c>
       <c r="G22">
-        <v>1.834962285217873</v>
+        <v>2.050286540468925</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>34.82472373416502</v>
       </c>
       <c r="J22">
-        <v>7.000366580246554</v>
+        <v>5.846156619368921</v>
       </c>
       <c r="K22">
-        <v>102.0730511756016</v>
+        <v>27.92510513314941</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>20.38009351723264</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.957776251700734</v>
+        <v>4.061923193426713</v>
       </c>
       <c r="D23">
-        <v>7.77875666973731</v>
+        <v>2.512983473934761</v>
       </c>
       <c r="E23">
-        <v>7.921577867733697</v>
+        <v>6.697816579325802</v>
       </c>
       <c r="F23">
-        <v>72.28844017419243</v>
+        <v>48.67073060973091</v>
       </c>
       <c r="G23">
-        <v>1.834962285217873</v>
+        <v>2.055806097185716</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>34.32354975920027</v>
       </c>
       <c r="J23">
-        <v>7.000366580246554</v>
+        <v>5.849936134390557</v>
       </c>
       <c r="K23">
-        <v>102.0730511756016</v>
+        <v>27.34872351756658</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>19.9621293046889</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.957776251700734</v>
+        <v>4.163974618180498</v>
       </c>
       <c r="D24">
-        <v>7.77875666973731</v>
+        <v>2.433522157701799</v>
       </c>
       <c r="E24">
-        <v>7.921577867733697</v>
+        <v>6.599073418599434</v>
       </c>
       <c r="F24">
-        <v>72.28844017419243</v>
+        <v>45.98364231658147</v>
       </c>
       <c r="G24">
-        <v>1.834962285217873</v>
+        <v>2.076649596997147</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>32.46602056673493</v>
       </c>
       <c r="J24">
-        <v>7.000366580246554</v>
+        <v>5.870527664027046</v>
       </c>
       <c r="K24">
-        <v>102.0730511756016</v>
+        <v>25.10282381027944</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>18.3328227103838</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.957776251700734</v>
+        <v>4.269563768240573</v>
       </c>
       <c r="D25">
-        <v>7.77875666973731</v>
+        <v>2.351902495514666</v>
       </c>
       <c r="E25">
-        <v>7.921577867733697</v>
+        <v>6.505976855586924</v>
       </c>
       <c r="F25">
-        <v>72.28844017419243</v>
+        <v>43.18753435841114</v>
       </c>
       <c r="G25">
-        <v>1.834962285217873</v>
+        <v>2.099228953795681</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>30.54082883041683</v>
       </c>
       <c r="J25">
-        <v>7.000366580246554</v>
+        <v>5.904799122165651</v>
       </c>
       <c r="K25">
-        <v>102.0730511756016</v>
+        <v>22.53365770326375</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>16.7567577442472</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.344899037416023</v>
+        <v>6.152135856756273</v>
       </c>
       <c r="D2">
-        <v>2.294251935499454</v>
+        <v>5.280040698178554</v>
       </c>
       <c r="E2">
-        <v>6.44800794162845</v>
+        <v>11.12338531991286</v>
       </c>
       <c r="F2">
-        <v>41.21026795404587</v>
+        <v>49.44050186604019</v>
       </c>
       <c r="G2">
-        <v>2.116130960102035</v>
+        <v>3.744214391672402</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.18559984599681</v>
+        <v>35.29737795692802</v>
       </c>
       <c r="J2">
-        <v>5.93924870252391</v>
+        <v>10.02788300527148</v>
       </c>
       <c r="K2">
-        <v>20.50518829416707</v>
+        <v>19.59612556902693</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.67103631791322</v>
+        <v>19.92064043291422</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.395052141869284</v>
+        <v>6.158117380940759</v>
       </c>
       <c r="D3">
-        <v>2.256297796084649</v>
+        <v>5.280372464145907</v>
       </c>
       <c r="E3">
-        <v>6.414897145105394</v>
+        <v>11.14186304279861</v>
       </c>
       <c r="F3">
-        <v>39.91999806750296</v>
+        <v>49.32812820919656</v>
       </c>
       <c r="G3">
-        <v>2.127839662330764</v>
+        <v>3.748260643917604</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.30484711869843</v>
+        <v>35.22646929845956</v>
       </c>
       <c r="J3">
-        <v>5.967851209965444</v>
+        <v>10.05019365851183</v>
       </c>
       <c r="K3">
-        <v>19.04057460937297</v>
+        <v>19.32433715630202</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.91876986106988</v>
+        <v>19.83666893995177</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.42557221273753</v>
+        <v>6.161869599419492</v>
       </c>
       <c r="D4">
-        <v>2.233437629511203</v>
+        <v>5.280800247818137</v>
       </c>
       <c r="E4">
-        <v>6.397483911318784</v>
+        <v>11.15454861024931</v>
       </c>
       <c r="F4">
-        <v>39.15237238087873</v>
+        <v>49.27148954335699</v>
       </c>
       <c r="G4">
-        <v>2.135177524556898</v>
+        <v>3.750872056787252</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.78255138865865</v>
+        <v>35.19169160636365</v>
       </c>
       <c r="J4">
-        <v>5.987862036274493</v>
+        <v>10.06495067215513</v>
       </c>
       <c r="K4">
-        <v>18.17447066972231</v>
+        <v>19.16117186664459</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.44978475027361</v>
+        <v>19.78955543299273</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.437963299746545</v>
+        <v>6.163419009417644</v>
       </c>
       <c r="D5">
-        <v>2.22422031123118</v>
+        <v>5.281031236331131</v>
       </c>
       <c r="E5">
-        <v>6.391103215352651</v>
+        <v>11.16005535678564</v>
       </c>
       <c r="F5">
-        <v>38.84579011133093</v>
+        <v>49.25151873955257</v>
       </c>
       <c r="G5">
-        <v>2.138208283556879</v>
+        <v>3.751968289999107</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.57436627551711</v>
+        <v>35.17972230524357</v>
       </c>
       <c r="J5">
-        <v>5.996612775449466</v>
+        <v>10.07123052944826</v>
       </c>
       <c r="K5">
-        <v>17.83415062261705</v>
+        <v>19.09569958051033</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.25709074623901</v>
+        <v>19.77148861607417</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.440018676539917</v>
+        <v>6.163677527170226</v>
       </c>
       <c r="D6">
-        <v>2.22269537755857</v>
+        <v>5.281073023544898</v>
       </c>
       <c r="E6">
-        <v>6.390086389378363</v>
+        <v>11.1609901263012</v>
       </c>
       <c r="F6">
-        <v>38.79526025230523</v>
+        <v>49.24839043080848</v>
       </c>
       <c r="G6">
-        <v>2.138714072936013</v>
+        <v>3.752152258827192</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.54007869386398</v>
+        <v>35.17786781788624</v>
       </c>
       <c r="J6">
-        <v>5.99810129169254</v>
+        <v>10.07228938101104</v>
       </c>
       <c r="K6">
-        <v>17.77721396459151</v>
+        <v>19.08489194267818</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.22500552072364</v>
+        <v>19.76855742008831</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.425739481148937</v>
+        <v>6.161890412465518</v>
       </c>
       <c r="D7">
-        <v>2.233312939139532</v>
+        <v>5.280803133137868</v>
       </c>
       <c r="E7">
-        <v>6.397394986232436</v>
+        <v>11.15462151018409</v>
       </c>
       <c r="F7">
-        <v>39.14821240602934</v>
+        <v>49.27120761815202</v>
       </c>
       <c r="G7">
-        <v>2.135218230406765</v>
+        <v>3.750886710991348</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.77972487304877</v>
+        <v>35.19152126660817</v>
       </c>
       <c r="J7">
-        <v>5.987977662734263</v>
+        <v>10.0650342862396</v>
       </c>
       <c r="K7">
-        <v>18.16990973797229</v>
+        <v>19.16028464819998</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.44719210193287</v>
+        <v>19.78930717482421</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.36226313945687</v>
+        <v>6.154181988599559</v>
       </c>
       <c r="D8">
-        <v>2.281064586004767</v>
+        <v>5.280108770878323</v>
       </c>
       <c r="E8">
-        <v>6.43597481254404</v>
+        <v>11.12947845644192</v>
       </c>
       <c r="F8">
-        <v>40.76029659673193</v>
+        <v>49.39919248073249</v>
       </c>
       <c r="G8">
-        <v>2.120139236735953</v>
+        <v>3.745583257528255</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.87807836508978</v>
+        <v>35.27111103750194</v>
       </c>
       <c r="J8">
-        <v>5.948590320281999</v>
+        <v>10.03535619230077</v>
       </c>
       <c r="K8">
-        <v>20.00955586153766</v>
+        <v>19.50169363092119</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.41323520601077</v>
+        <v>19.89077355956057</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.234458293515708</v>
+        <v>6.139680977797187</v>
       </c>
       <c r="D9">
-        <v>2.378953549838748</v>
+        <v>5.280511894228806</v>
       </c>
       <c r="E9">
-        <v>6.535633693994106</v>
+        <v>11.09079450447163</v>
       </c>
       <c r="F9">
-        <v>44.11646959362098</v>
+        <v>49.74800523989914</v>
       </c>
       <c r="G9">
-        <v>2.091591893688934</v>
+        <v>3.736185087004823</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>31.1794173588647</v>
+        <v>35.4966060355496</v>
       </c>
       <c r="J9">
-        <v>5.891751860089084</v>
+        <v>9.985546430963826</v>
       </c>
       <c r="K9">
-        <v>23.41967630909666</v>
+        <v>20.19685759657751</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.24476727041637</v>
+        <v>20.12432008992398</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.136705942515251</v>
+        <v>6.129379886718651</v>
       </c>
       <c r="D10">
-        <v>2.45470832030021</v>
+        <v>5.281867270973177</v>
       </c>
       <c r="E10">
-        <v>6.624769631894563</v>
+        <v>11.06883227760607</v>
       </c>
       <c r="F10">
-        <v>46.70446407511502</v>
+        <v>50.06341333490582</v>
       </c>
       <c r="G10">
-        <v>2.070994840215435</v>
+        <v>3.729882924950143</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>32.9636741639878</v>
+        <v>35.70434295859377</v>
       </c>
       <c r="J10">
-        <v>5.863929171228181</v>
+        <v>9.954055439275928</v>
       </c>
       <c r="K10">
-        <v>25.72339236699458</v>
+        <v>20.71809957318556</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.78312914453049</v>
+        <v>20.31595745773591</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.090918729057142</v>
+        <v>6.124765516912751</v>
       </c>
       <c r="D11">
-        <v>2.490360360047597</v>
+        <v>5.282710509236979</v>
       </c>
       <c r="E11">
-        <v>6.669091730394272</v>
+        <v>11.06023987014963</v>
       </c>
       <c r="F11">
-        <v>47.91053718039883</v>
+        <v>50.21956566383905</v>
       </c>
       <c r="G11">
-        <v>2.061642396995405</v>
+        <v>3.727145039002432</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.79740841155428</v>
+        <v>35.80788216083344</v>
       </c>
       <c r="J11">
-        <v>5.854681214813185</v>
+        <v>9.940835720683197</v>
       </c>
       <c r="K11">
-        <v>26.73114204137523</v>
+        <v>20.95642413405381</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.51420889186467</v>
+        <v>20.40724840135637</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.073343428163689</v>
+        <v>6.123028110053889</v>
       </c>
       <c r="D12">
-        <v>2.504069062636217</v>
+        <v>5.283062136338924</v>
       </c>
       <c r="E12">
-        <v>6.686447633656077</v>
+        <v>11.05718688484922</v>
       </c>
       <c r="F12">
-        <v>48.37168999937638</v>
+        <v>50.28049840646567</v>
       </c>
       <c r="G12">
-        <v>2.058097127085811</v>
+        <v>3.726126689111953</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>34.11652326050607</v>
+        <v>35.84837734386645</v>
       </c>
       <c r="J12">
-        <v>5.851706219758828</v>
+        <v>9.935988621026425</v>
       </c>
       <c r="K12">
-        <v>27.10730287602311</v>
+        <v>21.04675675878964</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.78704122275328</v>
+        <v>20.44238726916926</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.077139934705516</v>
+        <v>6.123401854479646</v>
       </c>
       <c r="D13">
-        <v>2.501106732848572</v>
+        <v>5.282984974555085</v>
       </c>
       <c r="E13">
-        <v>6.682683776132133</v>
+        <v>11.05783547546439</v>
       </c>
       <c r="F13">
-        <v>48.27216897697969</v>
+        <v>50.26729570522649</v>
       </c>
       <c r="G13">
-        <v>2.05886093712087</v>
+        <v>3.726345191322415</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>34.04764057802382</v>
+        <v>35.83959895940021</v>
       </c>
       <c r="J13">
-        <v>5.852322862751479</v>
+        <v>9.937025463780769</v>
       </c>
       <c r="K13">
-        <v>27.02652663944551</v>
+        <v>21.02729966469783</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.72845618494157</v>
+        <v>20.434794550748</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.089477836303151</v>
+        <v>6.124622381884267</v>
       </c>
       <c r="D14">
-        <v>2.491483777579578</v>
+        <v>5.282738791846661</v>
       </c>
       <c r="E14">
-        <v>6.670507963454651</v>
+        <v>11.05998467722848</v>
       </c>
       <c r="F14">
-        <v>47.94838538354373</v>
+        <v>50.22454266847547</v>
       </c>
       <c r="G14">
-        <v>2.061350838304925</v>
+        <v>3.727060890113793</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.82359250237817</v>
+        <v>35.81118800764428</v>
       </c>
       <c r="J14">
-        <v>5.854425670591475</v>
+        <v>9.94043376228829</v>
       </c>
       <c r="K14">
-        <v>26.76219623153675</v>
+        <v>20.96385466912188</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.53673389423884</v>
+        <v>20.41012802722952</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.097002820026137</v>
+        <v>6.125371276272368</v>
       </c>
       <c r="D15">
-        <v>2.485617746137056</v>
+        <v>5.282592197388563</v>
       </c>
       <c r="E15">
-        <v>6.663125366704198</v>
+        <v>11.06132726259728</v>
       </c>
       <c r="F15">
-        <v>47.75064764687521</v>
+        <v>50.19858910034208</v>
       </c>
       <c r="G15">
-        <v>2.062875293868878</v>
+        <v>3.727501672560746</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>33.68680715550266</v>
+        <v>35.79395269149457</v>
       </c>
       <c r="J15">
-        <v>5.855783505121145</v>
+        <v>9.94254213753457</v>
       </c>
       <c r="K15">
-        <v>26.59958678854012</v>
+        <v>20.92500113444318</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.41878362674721</v>
+        <v>20.39509247767141</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.139667839982216</v>
+        <v>6.129682858583116</v>
       </c>
       <c r="D16">
-        <v>2.452405328876088</v>
+        <v>5.281816700128448</v>
       </c>
       <c r="E16">
-        <v>6.62195144846662</v>
+        <v>11.06942192386483</v>
       </c>
       <c r="F16">
-        <v>46.62624653271824</v>
+        <v>50.05346168140357</v>
       </c>
       <c r="G16">
-        <v>2.071605882586738</v>
+        <v>3.730064437607368</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>32.90964907737855</v>
+        <v>35.69775727965948</v>
       </c>
       <c r="J16">
-        <v>5.864605184811011</v>
+        <v>9.954941621701142</v>
       </c>
       <c r="K16">
-        <v>25.65675158260813</v>
+        <v>20.70254112415948</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.73477628708198</v>
+        <v>20.31007225376024</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.16547227175522</v>
+        <v>6.132345977220742</v>
       </c>
       <c r="D17">
-        <v>2.432359662359339</v>
+        <v>5.281398809154061</v>
       </c>
       <c r="E17">
-        <v>6.597678947593823</v>
+        <v>11.07474566928729</v>
       </c>
       <c r="F17">
-        <v>45.94401207433629</v>
+        <v>49.96766232672357</v>
       </c>
       <c r="G17">
-        <v>2.076962101794035</v>
+        <v>3.731669563948203</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>32.4386745635048</v>
+        <v>35.64105123241433</v>
       </c>
       <c r="J17">
-        <v>5.870914862091251</v>
+        <v>9.962831442112067</v>
       </c>
       <c r="K17">
-        <v>25.06827385068763</v>
+        <v>20.56631436063657</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.3077495500523</v>
+        <v>20.2589530346897</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.180193319531541</v>
+        <v>6.133884497183317</v>
       </c>
       <c r="D18">
-        <v>2.420939431883208</v>
+        <v>5.281179801140488</v>
       </c>
       <c r="E18">
-        <v>6.584071293700566</v>
+        <v>11.07793938266979</v>
       </c>
       <c r="F18">
-        <v>45.55429346228938</v>
+        <v>49.91950697335896</v>
       </c>
       <c r="G18">
-        <v>2.08004489930458</v>
+        <v>3.732604939444322</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>32.16984165673134</v>
+        <v>35.60928706645504</v>
       </c>
       <c r="J18">
-        <v>5.874862410901191</v>
+        <v>9.967473535367979</v>
       </c>
       <c r="K18">
-        <v>24.72598891893823</v>
+        <v>20.48807936221399</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.05933654391912</v>
+        <v>20.22993927499093</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.185158156154102</v>
+        <v>6.134406586052884</v>
       </c>
       <c r="D19">
-        <v>2.417090534139607</v>
+        <v>5.281109324761363</v>
       </c>
       <c r="E19">
-        <v>6.579523807659074</v>
+        <v>11.07904333666867</v>
       </c>
       <c r="F19">
-        <v>45.42279524782477</v>
+        <v>49.90340808311759</v>
       </c>
       <c r="G19">
-        <v>2.081089206901318</v>
+        <v>3.732923731880784</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>32.07916757047123</v>
+        <v>35.59867888667949</v>
       </c>
       <c r="J19">
-        <v>5.876252617291366</v>
+        <v>9.969063146127127</v>
       </c>
       <c r="K19">
-        <v>24.60943364550569</v>
+        <v>20.46161354428645</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.97474069049077</v>
+        <v>20.22018314151647</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.162738185176897</v>
+        <v>6.132061786117802</v>
       </c>
       <c r="D20">
-        <v>2.434481979401858</v>
+        <v>5.281441086608741</v>
       </c>
       <c r="E20">
-        <v>6.600226035471003</v>
+        <v>11.07416532583591</v>
       </c>
       <c r="F20">
-        <v>46.01635744782791</v>
+        <v>49.97667236447445</v>
       </c>
       <c r="G20">
-        <v>2.07639175384685</v>
+        <v>3.731497438988714</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>32.48859611764682</v>
+        <v>35.646999629704</v>
       </c>
       <c r="J20">
-        <v>5.870209981701885</v>
+        <v>9.961980786231067</v>
       </c>
       <c r="K20">
-        <v>25.13131016519993</v>
+        <v>20.58080426853882</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.35349526962654</v>
+        <v>20.26435469862166</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.085860728662409</v>
+        <v>6.124263615991879</v>
       </c>
       <c r="D21">
-        <v>2.494304297883169</v>
+        <v>5.2828102269898</v>
       </c>
       <c r="E21">
-        <v>6.674068515143686</v>
+        <v>11.05934795816627</v>
       </c>
       <c r="F21">
-        <v>48.04336500401642</v>
+        <v>50.23705156852276</v>
       </c>
       <c r="G21">
-        <v>2.060619648165151</v>
+        <v>3.726850172866022</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.88930643458599</v>
+        <v>35.8194981714689</v>
       </c>
       <c r="J21">
-        <v>5.853793405437327</v>
+        <v>9.939428349916952</v>
       </c>
       <c r="K21">
-        <v>26.83998158665293</v>
+        <v>20.98248841718746</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.59315419783884</v>
+        <v>20.41735792658927</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.034210133591443</v>
+        <v>6.119224925118487</v>
       </c>
       <c r="D22">
-        <v>2.534636758074781</v>
+        <v>5.28389324656123</v>
       </c>
       <c r="E22">
-        <v>6.725679971793026</v>
+        <v>11.05083405601168</v>
       </c>
       <c r="F22">
-        <v>49.39423658005913</v>
+        <v>50.41771159596963</v>
       </c>
       <c r="G22">
-        <v>2.050286540468925</v>
+        <v>3.723920272556884</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>34.82472373416502</v>
+        <v>35.93973100522076</v>
       </c>
       <c r="J22">
-        <v>5.846156619368921</v>
+        <v>9.925615309199969</v>
       </c>
       <c r="K22">
-        <v>27.92510513314941</v>
+        <v>21.24546368709256</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.38009351723264</v>
+        <v>20.52065962002569</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.061923193426713</v>
+        <v>6.121908989239764</v>
       </c>
       <c r="D23">
-        <v>2.512983473934761</v>
+        <v>5.283298089549733</v>
       </c>
       <c r="E23">
-        <v>6.697816579325802</v>
+        <v>11.05527112634456</v>
       </c>
       <c r="F23">
-        <v>48.67073060973091</v>
+        <v>50.32033806864828</v>
       </c>
       <c r="G23">
-        <v>2.055806097185716</v>
+        <v>3.725474232508356</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>34.32354975920027</v>
+        <v>35.87487939317825</v>
       </c>
       <c r="J23">
-        <v>5.849936134390557</v>
+        <v>9.932902858342608</v>
       </c>
       <c r="K23">
-        <v>27.34872351756658</v>
+        <v>21.10509650212519</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.9621293046889</v>
+        <v>20.46523085124276</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.163974618180498</v>
+        <v>6.132190245660542</v>
       </c>
       <c r="D24">
-        <v>2.433522157701799</v>
+        <v>5.281421906782883</v>
       </c>
       <c r="E24">
-        <v>6.599073418599434</v>
+        <v>11.07442728475631</v>
       </c>
       <c r="F24">
-        <v>45.98364231658147</v>
+        <v>49.97259527484273</v>
       </c>
       <c r="G24">
-        <v>2.076649596997147</v>
+        <v>3.731575217530327</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>32.46602056673493</v>
+        <v>35.64430775161425</v>
       </c>
       <c r="J24">
-        <v>5.870527664027046</v>
+        <v>9.962365037176564</v>
       </c>
       <c r="K24">
-        <v>25.10282381027944</v>
+        <v>20.57425311401653</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.3328227103838</v>
+        <v>20.26191143548948</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.269563768240573</v>
+        <v>6.143540332558203</v>
       </c>
       <c r="D25">
-        <v>2.351902495514666</v>
+        <v>5.280215654827771</v>
       </c>
       <c r="E25">
-        <v>6.505976855586924</v>
+        <v>11.10012405084373</v>
       </c>
       <c r="F25">
-        <v>43.18753435841114</v>
+        <v>49.64320755329864</v>
       </c>
       <c r="G25">
-        <v>2.099228953795681</v>
+        <v>3.738621121334428</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.54082883041683</v>
+        <v>35.42818922280772</v>
       </c>
       <c r="J25">
-        <v>5.904799122165651</v>
+        <v>9.99812423728955</v>
       </c>
       <c r="K25">
-        <v>22.53365770326375</v>
+        <v>20.00658106764665</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.7567577442472</v>
+        <v>20.05753924239749</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.152135856756273</v>
+        <v>4.34489903741589</v>
       </c>
       <c r="D2">
-        <v>5.280040698178554</v>
+        <v>2.294251935499443</v>
       </c>
       <c r="E2">
-        <v>11.12338531991286</v>
+        <v>6.44800794162845</v>
       </c>
       <c r="F2">
-        <v>49.44050186604019</v>
+        <v>41.21026795404577</v>
       </c>
       <c r="G2">
-        <v>3.744214391672402</v>
+        <v>2.116130960102037</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.29737795692802</v>
+        <v>29.18559984599676</v>
       </c>
       <c r="J2">
-        <v>10.02788300527148</v>
+        <v>5.939248702523879</v>
       </c>
       <c r="K2">
-        <v>19.59612556902693</v>
+        <v>20.50518829416713</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.92064043291422</v>
+        <v>15.67103631791317</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.158117380940759</v>
+        <v>4.39505214186942</v>
       </c>
       <c r="D3">
-        <v>5.280372464145907</v>
+        <v>2.256297796084386</v>
       </c>
       <c r="E3">
-        <v>11.14186304279861</v>
+        <v>6.414897145105282</v>
       </c>
       <c r="F3">
-        <v>49.32812820919656</v>
+        <v>39.91999806750307</v>
       </c>
       <c r="G3">
-        <v>3.748260643917604</v>
+        <v>2.12783966233076</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>35.22646929845956</v>
+        <v>28.30484711869855</v>
       </c>
       <c r="J3">
-        <v>10.05019365851183</v>
+        <v>5.967851209965469</v>
       </c>
       <c r="K3">
-        <v>19.32433715630202</v>
+        <v>19.04057460937289</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.83666893995177</v>
+        <v>14.9187698610699</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.161869599419492</v>
+        <v>4.425572212737932</v>
       </c>
       <c r="D4">
-        <v>5.280800247818137</v>
+        <v>2.233437629511206</v>
       </c>
       <c r="E4">
-        <v>11.15454861024931</v>
+        <v>6.397483911318671</v>
       </c>
       <c r="F4">
-        <v>49.27148954335699</v>
+        <v>39.15237238087882</v>
       </c>
       <c r="G4">
-        <v>3.750872056787252</v>
+        <v>2.135177524556769</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>35.19169160636365</v>
+        <v>27.78255138865868</v>
       </c>
       <c r="J4">
-        <v>10.06495067215513</v>
+        <v>5.987862036274456</v>
       </c>
       <c r="K4">
-        <v>19.16117186664459</v>
+        <v>18.17447066972232</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.78955543299273</v>
+        <v>14.44978475027365</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.163419009417644</v>
+        <v>4.437963299746679</v>
       </c>
       <c r="D5">
-        <v>5.281031236331131</v>
+        <v>2.224220311231115</v>
       </c>
       <c r="E5">
-        <v>11.16005535678564</v>
+        <v>6.391103215352485</v>
       </c>
       <c r="F5">
-        <v>49.25151873955257</v>
+        <v>38.84579011133106</v>
       </c>
       <c r="G5">
-        <v>3.751968289999107</v>
+        <v>2.138208283556881</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>35.17972230524357</v>
+        <v>27.5743662755172</v>
       </c>
       <c r="J5">
-        <v>10.07123052944826</v>
+        <v>5.996612775449379</v>
       </c>
       <c r="K5">
-        <v>19.09569958051033</v>
+        <v>17.83415062261705</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.77148861607417</v>
+        <v>14.25709074623899</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.163677527170226</v>
+        <v>4.440018676540052</v>
       </c>
       <c r="D6">
-        <v>5.281073023544898</v>
+        <v>2.222695377558309</v>
       </c>
       <c r="E6">
-        <v>11.1609901263012</v>
+        <v>6.390086389378308</v>
       </c>
       <c r="F6">
-        <v>49.24839043080848</v>
+        <v>38.79526025230523</v>
       </c>
       <c r="G6">
-        <v>3.752152258827192</v>
+        <v>2.138714072935611</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>35.17786781788624</v>
+        <v>27.54007869386402</v>
       </c>
       <c r="J6">
-        <v>10.07228938101104</v>
+        <v>5.998101291692604</v>
       </c>
       <c r="K6">
-        <v>19.08489194267818</v>
+        <v>17.77721396459154</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.76855742008831</v>
+        <v>14.22500552072368</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.161890412465518</v>
+        <v>4.425739481149069</v>
       </c>
       <c r="D7">
-        <v>5.280803133137868</v>
+        <v>2.233312939139726</v>
       </c>
       <c r="E7">
-        <v>11.15462151018409</v>
+        <v>6.397394986232485</v>
       </c>
       <c r="F7">
-        <v>49.27120761815202</v>
+        <v>39.14821240602942</v>
       </c>
       <c r="G7">
-        <v>3.750886710991348</v>
+        <v>2.135218230406365</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>35.19152126660817</v>
+        <v>27.77972487304875</v>
       </c>
       <c r="J7">
-        <v>10.0650342862396</v>
+        <v>5.987977662734233</v>
       </c>
       <c r="K7">
-        <v>19.16028464819998</v>
+        <v>18.1699097379723</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.78930717482421</v>
+        <v>14.4471921019329</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.154181988599559</v>
+        <v>4.362263139457006</v>
       </c>
       <c r="D8">
-        <v>5.280108770878323</v>
+        <v>2.281064586004637</v>
       </c>
       <c r="E8">
-        <v>11.12947845644192</v>
+        <v>6.435974812543825</v>
       </c>
       <c r="F8">
-        <v>49.39919248073249</v>
+        <v>40.76029659673211</v>
       </c>
       <c r="G8">
-        <v>3.745583257528255</v>
+        <v>2.120139236736082</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.27111103750194</v>
+        <v>28.87807836508993</v>
       </c>
       <c r="J8">
-        <v>10.03535619230077</v>
+        <v>5.948590320281919</v>
       </c>
       <c r="K8">
-        <v>19.50169363092119</v>
+        <v>20.00955586153759</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.89077355956057</v>
+        <v>15.41323520601077</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.139680977797187</v>
+        <v>4.234458293515706</v>
       </c>
       <c r="D9">
-        <v>5.280511894228806</v>
+        <v>2.378953549838601</v>
       </c>
       <c r="E9">
-        <v>11.09079450447163</v>
+        <v>6.535633693994152</v>
       </c>
       <c r="F9">
-        <v>49.74800523989914</v>
+        <v>44.11646959362091</v>
       </c>
       <c r="G9">
-        <v>3.736185087004823</v>
+        <v>2.091591893688929</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>35.4966060355496</v>
+        <v>31.17941735886469</v>
       </c>
       <c r="J9">
-        <v>9.985546430963826</v>
+        <v>5.891751860089174</v>
       </c>
       <c r="K9">
-        <v>20.19685759657751</v>
+        <v>23.41967630909672</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.12432008992398</v>
+        <v>17.24476727041636</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.129379886718651</v>
+        <v>4.136705942515115</v>
       </c>
       <c r="D10">
-        <v>5.281867270973177</v>
+        <v>2.45470832030002</v>
       </c>
       <c r="E10">
-        <v>11.06883227760607</v>
+        <v>6.624769631894529</v>
       </c>
       <c r="F10">
-        <v>50.06341333490582</v>
+        <v>46.70446407511511</v>
       </c>
       <c r="G10">
-        <v>3.729882924950143</v>
+        <v>2.0709948402157</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>35.70434295859377</v>
+        <v>32.96367416398786</v>
       </c>
       <c r="J10">
-        <v>9.954055439275928</v>
+        <v>5.863929171228212</v>
       </c>
       <c r="K10">
-        <v>20.71809957318556</v>
+        <v>25.72339236699456</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.31595745773591</v>
+        <v>18.78312914453047</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.124765516912751</v>
+        <v>4.090918729057407</v>
       </c>
       <c r="D11">
-        <v>5.282710509236979</v>
+        <v>2.490360360047453</v>
       </c>
       <c r="E11">
-        <v>11.06023987014963</v>
+        <v>6.669091730394322</v>
       </c>
       <c r="F11">
-        <v>50.21956566383905</v>
+        <v>47.91053718039889</v>
       </c>
       <c r="G11">
-        <v>3.727145039002432</v>
+        <v>2.061642396995272</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>35.80788216083344</v>
+        <v>33.79740841155432</v>
       </c>
       <c r="J11">
-        <v>9.940835720683197</v>
+        <v>5.854681214813239</v>
       </c>
       <c r="K11">
-        <v>20.95642413405381</v>
+        <v>26.73114204137529</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.40724840135637</v>
+        <v>19.51420889186471</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.123028110053889</v>
+        <v>4.073343428163821</v>
       </c>
       <c r="D12">
-        <v>5.283062136338924</v>
+        <v>2.504069062636223</v>
       </c>
       <c r="E12">
-        <v>11.05718688484922</v>
+        <v>6.686447633656077</v>
       </c>
       <c r="F12">
-        <v>50.28049840646567</v>
+        <v>48.37168999937634</v>
       </c>
       <c r="G12">
-        <v>3.726126689111953</v>
+        <v>2.058097127086076</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>35.84837734386645</v>
+        <v>34.11652326050603</v>
       </c>
       <c r="J12">
-        <v>9.935988621026425</v>
+        <v>5.85170621975882</v>
       </c>
       <c r="K12">
-        <v>21.04675675878964</v>
+        <v>27.10730287602312</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.44238726916926</v>
+        <v>19.7870412227533</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.123401854479646</v>
+        <v>4.077139934705376</v>
       </c>
       <c r="D13">
-        <v>5.282984974555085</v>
+        <v>2.501106732848802</v>
       </c>
       <c r="E13">
-        <v>11.05783547546439</v>
+        <v>6.682683776132133</v>
       </c>
       <c r="F13">
-        <v>50.26729570522649</v>
+        <v>48.27216897697977</v>
       </c>
       <c r="G13">
-        <v>3.726345191322415</v>
+        <v>2.058860937121255</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35.83959895940021</v>
+        <v>34.04764057802387</v>
       </c>
       <c r="J13">
-        <v>9.937025463780769</v>
+        <v>5.852322862751443</v>
       </c>
       <c r="K13">
-        <v>21.02729966469783</v>
+        <v>27.02652663944579</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.434794550748</v>
+        <v>19.72845618494176</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.124622381884267</v>
+        <v>4.089477836303422</v>
       </c>
       <c r="D14">
-        <v>5.282738791846661</v>
+        <v>2.491483777579473</v>
       </c>
       <c r="E14">
-        <v>11.05998467722848</v>
+        <v>6.67050796345469</v>
       </c>
       <c r="F14">
-        <v>50.22454266847547</v>
+        <v>47.94838538354371</v>
       </c>
       <c r="G14">
-        <v>3.727060890113793</v>
+        <v>2.061350838304799</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.81118800764428</v>
+        <v>33.82359250237814</v>
       </c>
       <c r="J14">
-        <v>9.94043376228829</v>
+        <v>5.854425670591456</v>
       </c>
       <c r="K14">
-        <v>20.96385466912188</v>
+        <v>26.76219623153672</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.41012802722952</v>
+        <v>19.5367338942388</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.125371276272368</v>
+        <v>4.097002820025731</v>
       </c>
       <c r="D15">
-        <v>5.282592197388563</v>
+        <v>2.485617746137099</v>
       </c>
       <c r="E15">
-        <v>11.06132726259728</v>
+        <v>6.663125366704204</v>
       </c>
       <c r="F15">
-        <v>50.19858910034208</v>
+        <v>47.75064764687516</v>
       </c>
       <c r="G15">
-        <v>3.727501672560746</v>
+        <v>2.062875293868883</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>35.79395269149457</v>
+        <v>33.68680715550267</v>
       </c>
       <c r="J15">
-        <v>9.94254213753457</v>
+        <v>5.855783505121097</v>
       </c>
       <c r="K15">
-        <v>20.92500113444318</v>
+        <v>26.59958678854013</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.39509247767141</v>
+        <v>19.41878362674722</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.129682858583116</v>
+        <v>4.139667839982351</v>
       </c>
       <c r="D16">
-        <v>5.281816700128448</v>
+        <v>2.452405328875964</v>
       </c>
       <c r="E16">
-        <v>11.06942192386483</v>
+        <v>6.621951448466615</v>
       </c>
       <c r="F16">
-        <v>50.05346168140357</v>
+        <v>46.62624653271816</v>
       </c>
       <c r="G16">
-        <v>3.730064437607368</v>
+        <v>2.071605882586607</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>35.69775727965948</v>
+        <v>32.9096490773785</v>
       </c>
       <c r="J16">
-        <v>9.954941621701142</v>
+        <v>5.864605184810983</v>
       </c>
       <c r="K16">
-        <v>20.70254112415948</v>
+        <v>25.65675158260807</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.31007225376024</v>
+        <v>18.73477628708195</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.132345977220742</v>
+        <v>4.165472271755891</v>
       </c>
       <c r="D17">
-        <v>5.281398809154061</v>
+        <v>2.432359662359286</v>
       </c>
       <c r="E17">
-        <v>11.07474566928729</v>
+        <v>6.597678947593782</v>
       </c>
       <c r="F17">
-        <v>49.96766232672357</v>
+        <v>45.94401207433629</v>
       </c>
       <c r="G17">
-        <v>3.731669563948203</v>
+        <v>2.076962101793639</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>35.64105123241433</v>
+        <v>32.43867456350478</v>
       </c>
       <c r="J17">
-        <v>9.962831442112067</v>
+        <v>5.870914862091247</v>
       </c>
       <c r="K17">
-        <v>20.56631436063657</v>
+        <v>25.06827385068765</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.2589530346897</v>
+        <v>18.30774955005231</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.133884497183317</v>
+        <v>4.180193319531804</v>
       </c>
       <c r="D18">
-        <v>5.281179801140488</v>
+        <v>2.420939431883147</v>
       </c>
       <c r="E18">
-        <v>11.07793938266979</v>
+        <v>6.584071293700519</v>
       </c>
       <c r="F18">
-        <v>49.91950697335896</v>
+        <v>45.55429346228934</v>
       </c>
       <c r="G18">
-        <v>3.732604939444322</v>
+        <v>2.080044899304445</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>35.60928706645504</v>
+        <v>32.16984165673131</v>
       </c>
       <c r="J18">
-        <v>9.967473535367979</v>
+        <v>5.874862410901192</v>
       </c>
       <c r="K18">
-        <v>20.48807936221399</v>
+        <v>24.72598891893831</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.22993927499093</v>
+        <v>18.05933654391918</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.134406586052884</v>
+        <v>4.185158156153563</v>
       </c>
       <c r="D19">
-        <v>5.281109324761363</v>
+        <v>2.417090534139605</v>
       </c>
       <c r="E19">
-        <v>11.07904333666867</v>
+        <v>6.579523807659123</v>
       </c>
       <c r="F19">
-        <v>49.90340808311759</v>
+        <v>45.42279524782465</v>
       </c>
       <c r="G19">
-        <v>3.732923731880784</v>
+        <v>2.081089206901451</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>35.59867888667949</v>
+        <v>32.07916757047121</v>
       </c>
       <c r="J19">
-        <v>9.969063146127127</v>
+        <v>5.876252617291419</v>
       </c>
       <c r="K19">
-        <v>20.46161354428645</v>
+        <v>24.6094336455057</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.22018314151647</v>
+        <v>17.97474069049075</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.132061786117802</v>
+        <v>4.162738185177034</v>
       </c>
       <c r="D20">
-        <v>5.281441086608741</v>
+        <v>2.434481979401549</v>
       </c>
       <c r="E20">
-        <v>11.07416532583591</v>
+        <v>6.600226035470813</v>
       </c>
       <c r="F20">
-        <v>49.97667236447445</v>
+        <v>46.01635744782803</v>
       </c>
       <c r="G20">
-        <v>3.731497438988714</v>
+        <v>2.07639175384672</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>35.646999629704</v>
+        <v>32.48859611764692</v>
       </c>
       <c r="J20">
-        <v>9.961980786231067</v>
+        <v>5.870209981701828</v>
       </c>
       <c r="K20">
-        <v>20.58080426853882</v>
+        <v>25.13131016519983</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.26435469862166</v>
+        <v>18.35349526962651</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.124263615991879</v>
+        <v>4.085860728662277</v>
       </c>
       <c r="D21">
-        <v>5.2828102269898</v>
+        <v>2.494304297883412</v>
       </c>
       <c r="E21">
-        <v>11.05934795816627</v>
+        <v>6.674068515143723</v>
       </c>
       <c r="F21">
-        <v>50.23705156852276</v>
+        <v>48.04336500401632</v>
       </c>
       <c r="G21">
-        <v>3.726850172866022</v>
+        <v>2.06061964816501</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>35.8194981714689</v>
+        <v>33.88930643458591</v>
       </c>
       <c r="J21">
-        <v>9.939428349916952</v>
+        <v>5.853793405437338</v>
       </c>
       <c r="K21">
-        <v>20.98248841718746</v>
+        <v>26.83998158665287</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.41735792658927</v>
+        <v>19.59315419783876</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.119224925118487</v>
+        <v>4.034210133591041</v>
       </c>
       <c r="D22">
-        <v>5.28389324656123</v>
+        <v>2.534636758074905</v>
       </c>
       <c r="E22">
-        <v>11.05083405601168</v>
+        <v>6.725679971793107</v>
       </c>
       <c r="F22">
-        <v>50.41771159596963</v>
+        <v>49.3942365800593</v>
       </c>
       <c r="G22">
-        <v>3.723920272556884</v>
+        <v>2.05028654046919</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>35.93973100522076</v>
+        <v>34.82472373416515</v>
       </c>
       <c r="J22">
-        <v>9.925615309199969</v>
+        <v>5.846156619368924</v>
       </c>
       <c r="K22">
-        <v>21.24546368709256</v>
+        <v>27.9251051331495</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.52065962002569</v>
+        <v>20.38009351723267</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.121908989239764</v>
+        <v>4.061923193427113</v>
       </c>
       <c r="D23">
-        <v>5.283298089549733</v>
+        <v>2.512983473934754</v>
       </c>
       <c r="E23">
-        <v>11.05527112634456</v>
+        <v>6.697816579325834</v>
       </c>
       <c r="F23">
-        <v>50.32033806864828</v>
+        <v>48.670730609731</v>
       </c>
       <c r="G23">
-        <v>3.725474232508356</v>
+        <v>2.055806097185841</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>35.87487939317825</v>
+        <v>34.32354975920031</v>
       </c>
       <c r="J23">
-        <v>9.932902858342608</v>
+        <v>5.849936134390609</v>
       </c>
       <c r="K23">
-        <v>21.10509650212519</v>
+        <v>27.34872351756662</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.46523085124276</v>
+        <v>19.96212930468889</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.132190245660542</v>
+        <v>4.163974618180635</v>
       </c>
       <c r="D24">
-        <v>5.281421906782883</v>
+        <v>2.433522157701736</v>
       </c>
       <c r="E24">
-        <v>11.07442728475631</v>
+        <v>6.599073418599501</v>
       </c>
       <c r="F24">
-        <v>49.97259527484273</v>
+        <v>45.98364231658162</v>
       </c>
       <c r="G24">
-        <v>3.731575217530327</v>
+        <v>2.076649596997545</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>35.64430775161425</v>
+        <v>32.46602056673501</v>
       </c>
       <c r="J24">
-        <v>9.962365037176564</v>
+        <v>5.87052766402711</v>
       </c>
       <c r="K24">
-        <v>20.57425311401653</v>
+        <v>25.10282381027941</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.26191143548948</v>
+        <v>18.33282271038378</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.143540332558203</v>
+        <v>4.269563768240571</v>
       </c>
       <c r="D25">
-        <v>5.280215654827771</v>
+        <v>2.351902495514411</v>
       </c>
       <c r="E25">
-        <v>11.10012405084373</v>
+        <v>6.505976855586773</v>
       </c>
       <c r="F25">
-        <v>49.64320755329864</v>
+        <v>43.18753435841104</v>
       </c>
       <c r="G25">
-        <v>3.738621121334428</v>
+        <v>2.099228953795417</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>35.42818922280772</v>
+        <v>30.54082883041678</v>
       </c>
       <c r="J25">
-        <v>9.99812423728955</v>
+        <v>5.904799122165598</v>
       </c>
       <c r="K25">
-        <v>20.00658106764665</v>
+        <v>22.53365770326375</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.05753924239749</v>
+        <v>16.75675774424717</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,37 +430,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.34489903741589</v>
+        <v>3.722327560135659</v>
       </c>
       <c r="D2">
-        <v>2.294251935499443</v>
+        <v>7.229550276666166</v>
       </c>
       <c r="E2">
-        <v>6.44800794162845</v>
+        <v>11.62402334720648</v>
       </c>
       <c r="F2">
-        <v>41.21026795404577</v>
+        <v>26.85825842887617</v>
       </c>
       <c r="G2">
-        <v>2.116130960102037</v>
+        <v>31.59113135093992</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.764284764925966</v>
       </c>
       <c r="I2">
-        <v>29.18559984599676</v>
+        <v>2.802000026140288</v>
       </c>
       <c r="J2">
-        <v>5.939248702523879</v>
+        <v>10.90294933493978</v>
       </c>
       <c r="K2">
-        <v>20.50518829416713</v>
+        <v>18.30768812800111</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.195790056695235</v>
       </c>
       <c r="M2">
-        <v>15.67103631791317</v>
+        <v>24.21210140620341</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,8 +468,14 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,37 +483,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.39505214186942</v>
+        <v>3.436742906384903</v>
       </c>
       <c r="D3">
-        <v>2.256297796084386</v>
+        <v>6.846544035320609</v>
       </c>
       <c r="E3">
-        <v>6.414897145105282</v>
+        <v>11.02352491914789</v>
       </c>
       <c r="F3">
-        <v>39.91999806750307</v>
+        <v>26.21113797823519</v>
       </c>
       <c r="G3">
-        <v>2.12783966233076</v>
+        <v>30.80265726062291</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.050103161057943</v>
       </c>
       <c r="I3">
-        <v>28.30484711869855</v>
+        <v>2.564043389562335</v>
       </c>
       <c r="J3">
-        <v>5.967851209965469</v>
+        <v>10.87011219372632</v>
       </c>
       <c r="K3">
-        <v>19.04057460937289</v>
+        <v>17.99905784558912</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.95412115394206</v>
       </c>
       <c r="M3">
-        <v>14.9187698610699</v>
+        <v>22.61517086919804</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,8 +521,14 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,37 +536,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.425572212737932</v>
+        <v>3.247782839637662</v>
       </c>
       <c r="D4">
-        <v>2.233437629511206</v>
+        <v>6.602064312215719</v>
       </c>
       <c r="E4">
-        <v>6.397483911318671</v>
+        <v>10.63894869504672</v>
       </c>
       <c r="F4">
-        <v>39.15237238087882</v>
+        <v>25.81620704573505</v>
       </c>
       <c r="G4">
-        <v>2.135177524556769</v>
+        <v>30.32656604665539</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.231425215488349</v>
       </c>
       <c r="I4">
-        <v>27.78255138865868</v>
+        <v>2.532203910772701</v>
       </c>
       <c r="J4">
-        <v>5.987862036274456</v>
+        <v>10.85432496729646</v>
       </c>
       <c r="K4">
-        <v>18.17447066972232</v>
+        <v>17.81200806643223</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.800855269192743</v>
       </c>
       <c r="M4">
-        <v>14.44978475027365</v>
+        <v>21.57615535257406</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,8 +574,14 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,37 +589,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.437963299746679</v>
+        <v>3.154579986502397</v>
       </c>
       <c r="D5">
-        <v>2.224220311231115</v>
+        <v>6.504032153730228</v>
       </c>
       <c r="E5">
-        <v>6.391103215352485</v>
+        <v>10.47978380038966</v>
       </c>
       <c r="F5">
-        <v>38.84579011133106</v>
+        <v>25.64067276221575</v>
       </c>
       <c r="G5">
-        <v>2.138208283556881</v>
+        <v>30.10728407495156</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.307207073216465</v>
       </c>
       <c r="I5">
-        <v>27.5743662755172</v>
+        <v>2.601178426204153</v>
       </c>
       <c r="J5">
-        <v>5.996612775449379</v>
+        <v>10.84402121369418</v>
       </c>
       <c r="K5">
-        <v>17.83415062261705</v>
+        <v>17.7226075655863</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.736658193660608</v>
       </c>
       <c r="M5">
-        <v>14.25709074623899</v>
+        <v>21.1377815501557</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,8 +627,14 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,37 +642,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.440018676540052</v>
+        <v>3.123355595626776</v>
       </c>
       <c r="D6">
-        <v>2.222695377558309</v>
+        <v>6.492362357451513</v>
       </c>
       <c r="E6">
-        <v>6.390086389378308</v>
+        <v>10.45491549354487</v>
       </c>
       <c r="F6">
-        <v>38.79526025230523</v>
+        <v>25.59283107497871</v>
       </c>
       <c r="G6">
-        <v>2.138714072935611</v>
+        <v>30.03750168895643</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.320363717598884</v>
       </c>
       <c r="I6">
-        <v>27.54007869386402</v>
+        <v>2.617140197009079</v>
       </c>
       <c r="J6">
-        <v>5.998101291692604</v>
+        <v>10.83635484522943</v>
       </c>
       <c r="K6">
-        <v>17.77721396459154</v>
+        <v>17.69091045357851</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.725257327229293</v>
       </c>
       <c r="M6">
-        <v>14.22500552072368</v>
+        <v>21.06385737246452</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,8 +680,14 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,37 +695,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.425739481149069</v>
+        <v>3.205262701117521</v>
       </c>
       <c r="D7">
-        <v>2.233312939139726</v>
+        <v>6.613455182079095</v>
       </c>
       <c r="E7">
-        <v>6.397394986232485</v>
+        <v>10.64163058363756</v>
       </c>
       <c r="F7">
-        <v>39.14821240602942</v>
+        <v>25.76305286827741</v>
       </c>
       <c r="G7">
-        <v>2.135218230406365</v>
+        <v>30.2327916583165</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.233741663142332</v>
       </c>
       <c r="I7">
-        <v>27.77972487304875</v>
+        <v>2.544944044301866</v>
       </c>
       <c r="J7">
-        <v>5.987977662734233</v>
+        <v>10.83777565983411</v>
       </c>
       <c r="K7">
-        <v>18.1699097379723</v>
+        <v>17.76488148576699</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.798189909713827</v>
       </c>
       <c r="M7">
-        <v>14.4471921019329</v>
+        <v>21.56965955222175</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,8 +733,14 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,37 +748,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.362263139457006</v>
+        <v>3.576834634318336</v>
       </c>
       <c r="D8">
-        <v>2.281064586004637</v>
+        <v>7.115183444328581</v>
       </c>
       <c r="E8">
-        <v>6.435974812543825</v>
+        <v>11.42629086692671</v>
       </c>
       <c r="F8">
-        <v>40.76029659673211</v>
+        <v>26.56947917254366</v>
       </c>
       <c r="G8">
-        <v>2.120139236736082</v>
+        <v>31.2010082372476</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.863298092810945</v>
       </c>
       <c r="I8">
-        <v>28.87807836508993</v>
+        <v>2.72229120163278</v>
       </c>
       <c r="J8">
-        <v>5.948590320281919</v>
+        <v>10.86914737755857</v>
       </c>
       <c r="K8">
-        <v>20.00955586153759</v>
+        <v>18.14117379012997</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.111221487778375</v>
       </c>
       <c r="M8">
-        <v>15.41323520601077</v>
+        <v>23.67276140083864</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,8 +786,14 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,37 +801,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.234458293515706</v>
+        <v>4.264752864991602</v>
       </c>
       <c r="D9">
-        <v>2.378953549838601</v>
+        <v>8.002562833597924</v>
       </c>
       <c r="E9">
-        <v>6.535633693994152</v>
+        <v>12.82875868152507</v>
       </c>
       <c r="F9">
-        <v>44.11646959362091</v>
+        <v>28.25211878103336</v>
       </c>
       <c r="G9">
-        <v>2.091591893688929</v>
+        <v>33.31511303636957</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.932504511756898</v>
       </c>
       <c r="I9">
-        <v>31.17941735886469</v>
+        <v>3.292344901740542</v>
       </c>
       <c r="J9">
-        <v>5.891751860089174</v>
+        <v>10.99663621091517</v>
       </c>
       <c r="K9">
-        <v>23.41967630909672</v>
+        <v>18.97761597358864</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.688069539424195</v>
       </c>
       <c r="M9">
-        <v>17.24476727041636</v>
+        <v>27.33704760767613</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,8 +839,14 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,37 +854,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.136705942515115</v>
+        <v>4.730714768107982</v>
       </c>
       <c r="D10">
-        <v>2.45470832030002</v>
+        <v>8.54135804975564</v>
       </c>
       <c r="E10">
-        <v>6.624769631894529</v>
+        <v>13.56224729089071</v>
       </c>
       <c r="F10">
-        <v>46.70446407511511</v>
+        <v>29.18885937395603</v>
       </c>
       <c r="G10">
-        <v>2.0709948402157</v>
+        <v>34.48193041080436</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.382654150638599</v>
       </c>
       <c r="I10">
-        <v>32.96367416398786</v>
+        <v>3.686815296516222</v>
       </c>
       <c r="J10">
-        <v>5.863929171228212</v>
+        <v>11.03412949355121</v>
       </c>
       <c r="K10">
-        <v>25.72339236699456</v>
+        <v>19.43193176051998</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.972459553229297</v>
       </c>
       <c r="M10">
-        <v>18.78312914453047</v>
+        <v>29.74906234742395</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,8 +892,14 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,37 +907,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.090918729057407</v>
+        <v>5.201365732084928</v>
       </c>
       <c r="D11">
-        <v>2.490360360047453</v>
+        <v>8.190442939291307</v>
       </c>
       <c r="E11">
-        <v>6.669091730394322</v>
+        <v>12.04611256857507</v>
       </c>
       <c r="F11">
-        <v>47.91053718039889</v>
+        <v>27.14391975519309</v>
       </c>
       <c r="G11">
-        <v>2.061642396995272</v>
+        <v>31.65491122766553</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.176031790840131</v>
       </c>
       <c r="I11">
-        <v>33.79740841155432</v>
+        <v>3.805316413473979</v>
       </c>
       <c r="J11">
-        <v>5.854681214813239</v>
+        <v>10.39795920319963</v>
       </c>
       <c r="K11">
-        <v>26.73114204137529</v>
+        <v>18.29232772845502</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.176183847190372</v>
       </c>
       <c r="M11">
-        <v>19.51420889186471</v>
+        <v>30.75746828973589</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,8 +945,14 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,37 +960,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.073343428163821</v>
+        <v>5.561500931913464</v>
       </c>
       <c r="D12">
-        <v>2.504069062636223</v>
+        <v>7.763597007811438</v>
       </c>
       <c r="E12">
-        <v>6.686447633656077</v>
+        <v>10.65354509364991</v>
       </c>
       <c r="F12">
-        <v>48.37168999937634</v>
+        <v>25.27203086291273</v>
       </c>
       <c r="G12">
-        <v>2.058097127086076</v>
+        <v>29.11114145800326</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.352325631379124</v>
       </c>
       <c r="I12">
-        <v>34.11652326050603</v>
+        <v>3.826741297714936</v>
       </c>
       <c r="J12">
-        <v>5.85170621975882</v>
+        <v>9.878534596766315</v>
       </c>
       <c r="K12">
-        <v>27.10730287602312</v>
+        <v>17.29222693586744</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.532023791051563</v>
       </c>
       <c r="M12">
-        <v>19.7870412227533</v>
+        <v>31.12062152406765</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,8 +998,14 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,37 +1013,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.077139934705376</v>
+        <v>5.824819100073502</v>
       </c>
       <c r="D13">
-        <v>2.501106732848802</v>
+        <v>7.25632276591338</v>
       </c>
       <c r="E13">
-        <v>6.682683776132133</v>
+        <v>9.269665360402476</v>
       </c>
       <c r="F13">
-        <v>48.27216897697977</v>
+        <v>23.32551385647625</v>
       </c>
       <c r="G13">
-        <v>2.058860937121255</v>
+        <v>26.46012888740123</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.61791408178646</v>
       </c>
       <c r="I13">
-        <v>34.04764057802387</v>
+        <v>3.776105208381</v>
       </c>
       <c r="J13">
-        <v>5.852322862751443</v>
+        <v>9.394048586349053</v>
       </c>
       <c r="K13">
-        <v>27.02652663944579</v>
+        <v>16.26322906772045</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.982518611299803</v>
       </c>
       <c r="M13">
-        <v>19.72845618494176</v>
+        <v>31.02072496045494</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,8 +1051,14 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,37 +1066,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.089477836303422</v>
+        <v>5.961718066192073</v>
       </c>
       <c r="D14">
-        <v>2.491483777579473</v>
+        <v>6.862170371205227</v>
       </c>
       <c r="E14">
-        <v>6.67050796345469</v>
+        <v>8.32863507557588</v>
       </c>
       <c r="F14">
-        <v>47.94838538354371</v>
+        <v>21.9168987822018</v>
       </c>
       <c r="G14">
-        <v>2.061350838304799</v>
+        <v>24.52673537487875</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.536425104918109</v>
       </c>
       <c r="I14">
-        <v>33.82359250237814</v>
+        <v>3.708994508072371</v>
       </c>
       <c r="J14">
-        <v>5.854425670591456</v>
+        <v>9.072160033361854</v>
       </c>
       <c r="K14">
-        <v>26.76219623153672</v>
+        <v>15.52010317421031</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.673220207895515</v>
       </c>
       <c r="M14">
-        <v>19.5367338942388</v>
+        <v>30.7402453230033</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,8 +1104,14 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,37 +1119,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.097002820025731</v>
+        <v>5.96164532937109</v>
       </c>
       <c r="D15">
-        <v>2.485617746137099</v>
+        <v>6.751781217701046</v>
       </c>
       <c r="E15">
-        <v>6.663125366704204</v>
+        <v>8.096210232483122</v>
       </c>
       <c r="F15">
-        <v>47.75064764687516</v>
+        <v>21.54498169116122</v>
       </c>
       <c r="G15">
-        <v>2.062875293868883</v>
+        <v>24.00812376519009</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.744319923308831</v>
       </c>
       <c r="I15">
-        <v>33.68680715550267</v>
+        <v>3.677250194686278</v>
       </c>
       <c r="J15">
-        <v>5.855783505121097</v>
+        <v>8.997080905398786</v>
       </c>
       <c r="K15">
-        <v>26.59958678854013</v>
+        <v>15.31973606983043</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.606491974635159</v>
       </c>
       <c r="M15">
-        <v>19.41878362674722</v>
+        <v>30.57140522994397</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,8 +1157,14 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,37 +1172,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.139667839982351</v>
+        <v>5.725022326415751</v>
       </c>
       <c r="D16">
-        <v>2.452405328875964</v>
+        <v>6.602777400548366</v>
       </c>
       <c r="E16">
-        <v>6.621951448466615</v>
+        <v>7.984781068159395</v>
       </c>
       <c r="F16">
-        <v>46.62624653271816</v>
+        <v>21.45641326191044</v>
       </c>
       <c r="G16">
-        <v>2.071605882586607</v>
+        <v>23.89476277394383</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.460031588123118</v>
       </c>
       <c r="I16">
-        <v>32.9096490773785</v>
+        <v>3.52086943580349</v>
       </c>
       <c r="J16">
-        <v>5.864605184810983</v>
+        <v>9.072151825661397</v>
       </c>
       <c r="K16">
-        <v>25.65675158260807</v>
+        <v>15.28682727151859</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.576282893678498</v>
       </c>
       <c r="M16">
-        <v>18.73477628708195</v>
+        <v>29.60247934117938</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,8 +1210,14 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,37 +1225,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.165472271755891</v>
+        <v>5.459047071780731</v>
       </c>
       <c r="D17">
-        <v>2.432359662359286</v>
+        <v>6.706160774082731</v>
       </c>
       <c r="E17">
-        <v>6.597678947593782</v>
+        <v>8.399306841222028</v>
       </c>
       <c r="F17">
-        <v>45.94401207433629</v>
+        <v>22.14454416558284</v>
       </c>
       <c r="G17">
-        <v>2.076962101793639</v>
+        <v>24.85312958111439</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.701471837324598</v>
       </c>
       <c r="I17">
-        <v>32.43867456350478</v>
+        <v>3.436246845906917</v>
       </c>
       <c r="J17">
-        <v>5.870914862091247</v>
+        <v>9.297265868627397</v>
       </c>
       <c r="K17">
-        <v>25.06827385068765</v>
+        <v>15.65797300058517</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.702647999561766</v>
       </c>
       <c r="M17">
-        <v>18.30774955005231</v>
+        <v>28.99862680040538</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,8 +1263,14 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,37 +1278,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.180193319531804</v>
+        <v>5.171167551565143</v>
       </c>
       <c r="D18">
-        <v>2.420939431883147</v>
+        <v>7.033107237658526</v>
       </c>
       <c r="E18">
-        <v>6.584071293700519</v>
+        <v>9.3915339789291</v>
       </c>
       <c r="F18">
-        <v>45.55429346228934</v>
+        <v>23.6216884451322</v>
       </c>
       <c r="G18">
-        <v>2.080044899304445</v>
+        <v>26.90517900218183</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.483610673149109</v>
       </c>
       <c r="I18">
-        <v>32.16984165673131</v>
+        <v>3.404561842668864</v>
       </c>
       <c r="J18">
-        <v>5.874862410901192</v>
+        <v>9.69423069086737</v>
       </c>
       <c r="K18">
-        <v>24.72598891893831</v>
+        <v>16.45536540115175</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.062834282806045</v>
       </c>
       <c r="M18">
-        <v>18.05933654391918</v>
+        <v>28.65537762165196</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,8 +1316,14 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,37 +1331,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.185158156153563</v>
+        <v>4.837017594967094</v>
       </c>
       <c r="D19">
-        <v>2.417090534139605</v>
+        <v>7.531362117595515</v>
       </c>
       <c r="E19">
-        <v>6.579523807659123</v>
+        <v>10.84864978375311</v>
       </c>
       <c r="F19">
-        <v>45.42279524782465</v>
+        <v>25.55540360057255</v>
       </c>
       <c r="G19">
-        <v>2.081089206901451</v>
+        <v>29.54162181966277</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.13690534721214</v>
       </c>
       <c r="I19">
-        <v>32.07916757047121</v>
+        <v>3.426519742205345</v>
       </c>
       <c r="J19">
-        <v>5.876252617291419</v>
+        <v>10.18632185035538</v>
       </c>
       <c r="K19">
-        <v>24.6094336455057</v>
+        <v>17.47056403718411</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.680308967359077</v>
       </c>
       <c r="M19">
-        <v>17.97474069049075</v>
+        <v>28.55263741611301</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,8 +1369,14 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,37 +1384,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.162738185177034</v>
+        <v>4.51926754922526</v>
       </c>
       <c r="D20">
-        <v>2.434481979401549</v>
+        <v>8.431131921635478</v>
       </c>
       <c r="E20">
-        <v>6.600226035470813</v>
+        <v>13.37558562036826</v>
       </c>
       <c r="F20">
-        <v>46.01635744782803</v>
+        <v>28.78860354331195</v>
       </c>
       <c r="G20">
-        <v>2.07639175384672</v>
+        <v>33.90416645649819</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.260555748785416</v>
       </c>
       <c r="I20">
-        <v>32.48859611764692</v>
+        <v>3.588153002665651</v>
       </c>
       <c r="J20">
-        <v>5.870209981701828</v>
+        <v>10.96989389123893</v>
       </c>
       <c r="K20">
-        <v>25.13131016519983</v>
+        <v>19.17303325548318</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.889138552941042</v>
       </c>
       <c r="M20">
-        <v>18.35349526962651</v>
+        <v>29.13213488421318</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,8 +1422,14 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,37 +1437,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.085860728662277</v>
+        <v>4.828337960117391</v>
       </c>
       <c r="D21">
-        <v>2.494304297883412</v>
+        <v>8.930127375129677</v>
       </c>
       <c r="E21">
-        <v>6.674068515143723</v>
+        <v>14.24985391813835</v>
       </c>
       <c r="F21">
-        <v>48.04336500401632</v>
+        <v>29.97428756173824</v>
       </c>
       <c r="G21">
-        <v>2.06061964816501</v>
+        <v>35.45461489970504</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.624388140447137</v>
       </c>
       <c r="I21">
-        <v>33.88930643458591</v>
+        <v>3.895768085193564</v>
       </c>
       <c r="J21">
-        <v>5.853793405437338</v>
+        <v>11.13292032574677</v>
       </c>
       <c r="K21">
-        <v>26.83998158665287</v>
+        <v>19.7868438071571</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.275627846155928</v>
       </c>
       <c r="M21">
-        <v>19.59315419783876</v>
+        <v>30.9029699972947</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,8 +1475,14 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,37 +1490,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.034210133591041</v>
+        <v>5.074377143087956</v>
       </c>
       <c r="D22">
-        <v>2.534636758074905</v>
+        <v>9.198923802381429</v>
       </c>
       <c r="E22">
-        <v>6.725679971793107</v>
+        <v>14.68890435052573</v>
       </c>
       <c r="F22">
-        <v>49.3942365800593</v>
+        <v>30.66023384594697</v>
       </c>
       <c r="G22">
-        <v>2.05028654046919</v>
+        <v>36.37666142074222</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.851259745528094</v>
       </c>
       <c r="I22">
-        <v>34.82472373416515</v>
+        <v>4.089224689637798</v>
       </c>
       <c r="J22">
-        <v>5.846156619368924</v>
+        <v>11.22751954475032</v>
       </c>
       <c r="K22">
-        <v>27.9251051331495</v>
+        <v>20.16581145141496</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.46706753007261</v>
       </c>
       <c r="M22">
-        <v>20.38009351723267</v>
+        <v>32.01052682309825</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,8 +1528,14 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,37 +1543,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.061923193427113</v>
+        <v>4.977274707231053</v>
       </c>
       <c r="D23">
-        <v>2.512983473934754</v>
+        <v>9.044943870677104</v>
       </c>
       <c r="E23">
-        <v>6.697816579325834</v>
+        <v>14.45158727866099</v>
       </c>
       <c r="F23">
-        <v>48.670730609731</v>
+        <v>30.34567184450714</v>
       </c>
       <c r="G23">
-        <v>2.055806097185841</v>
+        <v>35.97545900436108</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.731793435761431</v>
       </c>
       <c r="I23">
-        <v>34.32354975920031</v>
+        <v>3.984783912374489</v>
       </c>
       <c r="J23">
-        <v>5.849936134390609</v>
+        <v>11.19496340188318</v>
       </c>
       <c r="K23">
-        <v>27.34872351756662</v>
+        <v>20.01204871850687</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.367080241627505</v>
       </c>
       <c r="M23">
-        <v>19.96212930468889</v>
+        <v>31.42451648703549</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,8 +1581,14 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,37 +1596,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.163974618180635</v>
+        <v>4.539593378994615</v>
       </c>
       <c r="D24">
-        <v>2.433522157701736</v>
+        <v>8.460910485105607</v>
       </c>
       <c r="E24">
-        <v>6.599073418599501</v>
+        <v>13.52961419717534</v>
       </c>
       <c r="F24">
-        <v>45.98364231658162</v>
+        <v>29.07382171589499</v>
       </c>
       <c r="G24">
-        <v>2.076649596997545</v>
+        <v>34.325521074649</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.269872137517071</v>
       </c>
       <c r="I24">
-        <v>32.46602056673501</v>
+        <v>3.585803822691178</v>
       </c>
       <c r="J24">
-        <v>5.87052766402711</v>
+        <v>11.05448257897538</v>
       </c>
       <c r="K24">
-        <v>25.10282381027941</v>
+        <v>19.35836379785382</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.975869970076581</v>
       </c>
       <c r="M24">
-        <v>18.33282271038378</v>
+        <v>29.10624828290923</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,8 +1634,14 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.269563768240571</v>
+        <v>4.029197081185658</v>
       </c>
       <c r="D25">
-        <v>2.351902495514411</v>
+        <v>7.790538984672701</v>
       </c>
       <c r="E25">
-        <v>6.505976855586773</v>
+        <v>12.47089876473525</v>
       </c>
       <c r="F25">
-        <v>43.18753435841104</v>
+        <v>27.71095802328734</v>
       </c>
       <c r="G25">
-        <v>2.099228953795417</v>
+        <v>32.58542060186127</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.754330402511626</v>
       </c>
       <c r="I25">
-        <v>30.54082883041678</v>
+        <v>3.143557848181273</v>
       </c>
       <c r="J25">
-        <v>5.904799122165598</v>
+        <v>10.92884558282484</v>
       </c>
       <c r="K25">
-        <v>22.53365770326375</v>
+        <v>18.67060005471902</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.533549306613914</v>
       </c>
       <c r="M25">
-        <v>16.75675774424717</v>
+        <v>26.39356237998738</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,43 +436,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.722327560135659</v>
+        <v>2.341639581749326</v>
       </c>
       <c r="D2">
-        <v>7.229550276666166</v>
+        <v>7.675004749520152</v>
       </c>
       <c r="E2">
-        <v>11.62402334720648</v>
+        <v>11.82800087343566</v>
       </c>
       <c r="F2">
-        <v>26.85825842887617</v>
+        <v>25.06479378897942</v>
       </c>
       <c r="G2">
-        <v>31.59113135093992</v>
+        <v>27.94180430923268</v>
       </c>
       <c r="H2">
-        <v>1.764284764925966</v>
+        <v>1.754732626201401</v>
       </c>
       <c r="I2">
-        <v>2.802000026140288</v>
+        <v>2.857936867721808</v>
       </c>
       <c r="J2">
-        <v>10.90294933493978</v>
+        <v>10.60860598002507</v>
       </c>
       <c r="K2">
-        <v>18.30768812800111</v>
+        <v>16.57571055654486</v>
       </c>
       <c r="L2">
-        <v>7.195790056695235</v>
+        <v>14.19774493511961</v>
       </c>
       <c r="M2">
-        <v>24.21210140620341</v>
+        <v>10.52692097492684</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.159373747388102</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>24.21840461971713</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,8 +480,14 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,43 +495,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.436742906384903</v>
+        <v>2.406872031930221</v>
       </c>
       <c r="D3">
-        <v>6.846544035320609</v>
+        <v>7.255270458152776</v>
       </c>
       <c r="E3">
-        <v>11.02352491914789</v>
+        <v>11.22493193074295</v>
       </c>
       <c r="F3">
-        <v>26.21113797823519</v>
+        <v>24.61639932860353</v>
       </c>
       <c r="G3">
-        <v>30.80265726062291</v>
+        <v>27.55131344932547</v>
       </c>
       <c r="H3">
-        <v>2.050103161057943</v>
+        <v>2.018097737601325</v>
       </c>
       <c r="I3">
-        <v>2.564043389562335</v>
+        <v>2.657915008229346</v>
       </c>
       <c r="J3">
-        <v>10.87011219372632</v>
+        <v>10.5916833244138</v>
       </c>
       <c r="K3">
-        <v>17.99905784558912</v>
+        <v>16.43664871515514</v>
       </c>
       <c r="L3">
-        <v>6.95412115394206</v>
+        <v>14.22958493594459</v>
       </c>
       <c r="M3">
-        <v>22.61517086919804</v>
+        <v>10.25503701613254</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.933072945427779</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>22.633098406319</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,8 +539,14 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,43 +554,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.247782839637662</v>
+        <v>2.454072143997049</v>
       </c>
       <c r="D4">
-        <v>6.602064312215719</v>
+        <v>6.987301466078868</v>
       </c>
       <c r="E4">
-        <v>10.63894869504672</v>
+        <v>10.83893286455165</v>
       </c>
       <c r="F4">
-        <v>25.81620704573505</v>
+        <v>24.34461248990097</v>
       </c>
       <c r="G4">
-        <v>30.32656604665539</v>
+        <v>27.32789349869113</v>
       </c>
       <c r="H4">
-        <v>2.231425215488349</v>
+        <v>2.185347072524849</v>
       </c>
       <c r="I4">
-        <v>2.532203910772701</v>
+        <v>2.531675184034885</v>
       </c>
       <c r="J4">
-        <v>10.85432496729646</v>
+        <v>10.58258375337608</v>
       </c>
       <c r="K4">
-        <v>17.81200806643223</v>
+        <v>16.3530510533386</v>
       </c>
       <c r="L4">
-        <v>6.800855269192743</v>
+        <v>14.24524682486688</v>
       </c>
       <c r="M4">
-        <v>21.57615535257406</v>
+        <v>10.10916310191973</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.789655914486459</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>21.60141381204936</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,8 +598,14 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,43 +613,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.154579986502397</v>
+        <v>2.466112686237938</v>
       </c>
       <c r="D5">
-        <v>6.504032153730228</v>
+        <v>6.879179436917152</v>
       </c>
       <c r="E5">
-        <v>10.47978380038966</v>
+        <v>10.67913824012935</v>
       </c>
       <c r="F5">
-        <v>25.64067276221575</v>
+        <v>24.22113296349074</v>
       </c>
       <c r="G5">
-        <v>30.10728407495156</v>
+        <v>27.21652221820212</v>
       </c>
       <c r="H5">
-        <v>2.307207073216465</v>
+        <v>2.255262637670493</v>
       </c>
       <c r="I5">
-        <v>2.601178426204153</v>
+        <v>2.480178890539278</v>
       </c>
       <c r="J5">
-        <v>10.84402121369418</v>
+        <v>10.57488441208905</v>
       </c>
       <c r="K5">
-        <v>17.7226075655863</v>
+        <v>16.30747300753036</v>
       </c>
       <c r="L5">
-        <v>6.736658193660608</v>
+        <v>14.24089521866174</v>
       </c>
       <c r="M5">
-        <v>21.1377815501557</v>
+        <v>10.04686197015868</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.72963556544557</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>21.1661168083198</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,8 +657,14 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,43 +672,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.123355595626776</v>
+        <v>2.457602015934154</v>
       </c>
       <c r="D6">
-        <v>6.492362357451513</v>
+        <v>6.865449247972755</v>
       </c>
       <c r="E6">
-        <v>10.45491549354487</v>
+        <v>10.65403633604388</v>
       </c>
       <c r="F6">
-        <v>25.59283107497871</v>
+        <v>24.18401255822433</v>
       </c>
       <c r="G6">
-        <v>30.03750168895643</v>
+        <v>27.16861524464845</v>
       </c>
       <c r="H6">
-        <v>2.320363717598884</v>
+        <v>2.267374058755722</v>
       </c>
       <c r="I6">
-        <v>2.617140197009079</v>
+        <v>2.489214444262437</v>
       </c>
       <c r="J6">
-        <v>10.83635484522943</v>
+        <v>10.56837363222403</v>
       </c>
       <c r="K6">
-        <v>17.69091045357851</v>
+        <v>16.28535419408334</v>
       </c>
       <c r="L6">
-        <v>6.725257327229293</v>
+        <v>14.22822021796275</v>
       </c>
       <c r="M6">
-        <v>21.06385737246452</v>
+        <v>10.02659437025496</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.719006803762116</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>21.09273644848682</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,8 +716,14 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,43 +731,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.205262701117521</v>
+        <v>2.433107438300599</v>
       </c>
       <c r="D7">
-        <v>6.613455182079095</v>
+        <v>7.004747514248217</v>
       </c>
       <c r="E7">
-        <v>10.64163058363756</v>
+        <v>10.84399902591223</v>
       </c>
       <c r="F7">
-        <v>25.76305286827741</v>
+        <v>24.27012265059617</v>
       </c>
       <c r="G7">
-        <v>30.2327916583165</v>
+        <v>27.30346591726712</v>
       </c>
       <c r="H7">
-        <v>2.233741663142332</v>
+        <v>2.188073048660689</v>
       </c>
       <c r="I7">
-        <v>2.544944044301866</v>
+        <v>2.533216815996718</v>
       </c>
       <c r="J7">
-        <v>10.83777565983411</v>
+        <v>10.52283406852089</v>
       </c>
       <c r="K7">
-        <v>17.76488148576699</v>
+        <v>16.29536026331057</v>
       </c>
       <c r="L7">
-        <v>6.798189909713827</v>
+        <v>14.19940840121876</v>
       </c>
       <c r="M7">
-        <v>21.56965955222175</v>
+        <v>10.06713324199377</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.786264093643543</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>21.59470104138845</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,8 +775,14 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,43 +790,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.576834634318336</v>
+        <v>2.350456739587951</v>
       </c>
       <c r="D8">
-        <v>7.115183444328581</v>
+        <v>7.569341527933951</v>
       </c>
       <c r="E8">
-        <v>11.42629086692671</v>
+        <v>11.6375868788424</v>
       </c>
       <c r="F8">
-        <v>26.56947917254366</v>
+        <v>24.76226040094017</v>
       </c>
       <c r="G8">
-        <v>31.2010082372476</v>
+        <v>27.8894855920711</v>
       </c>
       <c r="H8">
-        <v>1.863298092810945</v>
+        <v>1.847876987599135</v>
       </c>
       <c r="I8">
-        <v>2.72229120163278</v>
+        <v>2.790411260715951</v>
       </c>
       <c r="J8">
-        <v>10.86914737755857</v>
+        <v>10.43563437180821</v>
       </c>
       <c r="K8">
-        <v>18.14117379012997</v>
+        <v>16.41932469690811</v>
       </c>
       <c r="L8">
-        <v>7.111221487778375</v>
+        <v>14.12687136615557</v>
       </c>
       <c r="M8">
-        <v>23.67276140083864</v>
+        <v>10.34624465023525</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.077212193809451</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>23.68212778587679</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,8 +834,14 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,43 +849,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.264752864991602</v>
+        <v>2.645551173318397</v>
       </c>
       <c r="D9">
-        <v>8.002562833597924</v>
+        <v>8.546799340215644</v>
       </c>
       <c r="E9">
-        <v>12.82875868152507</v>
+        <v>13.04837352874915</v>
       </c>
       <c r="F9">
-        <v>28.25211878103336</v>
+        <v>25.93403831304872</v>
       </c>
       <c r="G9">
-        <v>33.31511303636957</v>
+        <v>29.10152775669195</v>
       </c>
       <c r="H9">
-        <v>1.932504511756898</v>
+        <v>1.893676778274426</v>
       </c>
       <c r="I9">
-        <v>3.292344901740542</v>
+        <v>3.267907087105073</v>
       </c>
       <c r="J9">
-        <v>10.99663621091517</v>
+        <v>10.46329450598833</v>
       </c>
       <c r="K9">
-        <v>18.97761597358864</v>
+        <v>16.81117730295324</v>
       </c>
       <c r="L9">
-        <v>7.688069539424195</v>
+        <v>14.05725871941941</v>
       </c>
       <c r="M9">
-        <v>27.33704760767613</v>
+        <v>11.15064308160201</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.617227100185585</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>27.31756267079649</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,8 +893,14 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,43 +908,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.730714768107982</v>
+        <v>3.045854496732524</v>
       </c>
       <c r="D10">
-        <v>8.54135804975564</v>
+        <v>9.171488917254853</v>
       </c>
       <c r="E10">
-        <v>13.56224729089071</v>
+        <v>13.79661307173516</v>
       </c>
       <c r="F10">
-        <v>29.18885937395603</v>
+        <v>26.40262639332883</v>
       </c>
       <c r="G10">
-        <v>34.48193041080436</v>
+        <v>30.04000697523286</v>
       </c>
       <c r="H10">
-        <v>2.382654150638599</v>
+        <v>2.303633935519373</v>
       </c>
       <c r="I10">
-        <v>3.686815296516222</v>
+        <v>3.596142991665153</v>
       </c>
       <c r="J10">
-        <v>11.03412949355121</v>
+        <v>10.17919502006795</v>
       </c>
       <c r="K10">
-        <v>19.43193176051998</v>
+        <v>16.88362056691154</v>
       </c>
       <c r="L10">
-        <v>7.972459553229297</v>
+        <v>13.83043716373627</v>
       </c>
       <c r="M10">
-        <v>29.74906234742395</v>
+        <v>11.63328588865178</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.873416819203614</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>29.70715479877903</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,8 +952,14 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,43 +967,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.201365732084928</v>
+        <v>3.683647621470996</v>
       </c>
       <c r="D11">
-        <v>8.190442939291307</v>
+        <v>8.85101055017314</v>
       </c>
       <c r="E11">
-        <v>12.04611256857507</v>
+        <v>12.2732185657389</v>
       </c>
       <c r="F11">
-        <v>27.14391975519309</v>
+        <v>24.21416347373009</v>
       </c>
       <c r="G11">
-        <v>31.65491122766553</v>
+        <v>28.12390513815456</v>
       </c>
       <c r="H11">
-        <v>3.176031790840131</v>
+        <v>3.106791121962967</v>
       </c>
       <c r="I11">
-        <v>3.805316413473979</v>
+        <v>3.694167484117811</v>
       </c>
       <c r="J11">
-        <v>10.39795920319963</v>
+        <v>9.193660245942151</v>
       </c>
       <c r="K11">
-        <v>18.29232772845502</v>
+        <v>15.71210803741663</v>
       </c>
       <c r="L11">
-        <v>7.176183847190372</v>
+        <v>12.90417545533083</v>
       </c>
       <c r="M11">
-        <v>30.75746828973589</v>
+        <v>10.86195745449036</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.071292114796121</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>30.70790337774147</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,8 +1011,14 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,43 +1026,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.561500931913464</v>
+        <v>4.179087171012159</v>
       </c>
       <c r="D12">
-        <v>7.763597007811438</v>
+        <v>8.411080710980281</v>
       </c>
       <c r="E12">
-        <v>10.65354509364991</v>
+        <v>10.85682477041877</v>
       </c>
       <c r="F12">
-        <v>25.27203086291273</v>
+        <v>22.41214660422481</v>
       </c>
       <c r="G12">
-        <v>29.11114145800326</v>
+        <v>26.1836161514961</v>
       </c>
       <c r="H12">
-        <v>4.352325631379124</v>
+        <v>4.301886567777164</v>
       </c>
       <c r="I12">
-        <v>3.826741297714936</v>
+        <v>3.711217939964804</v>
       </c>
       <c r="J12">
-        <v>9.878534596766315</v>
+        <v>8.649241126497955</v>
       </c>
       <c r="K12">
-        <v>17.29222693586744</v>
+        <v>14.82399061480126</v>
       </c>
       <c r="L12">
-        <v>6.532023791051563</v>
+        <v>12.2688860518833</v>
       </c>
       <c r="M12">
-        <v>31.12062152406765</v>
+        <v>10.18693934446296</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.432520920303421</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>31.06984339110315</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,8 +1070,14 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,43 +1085,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.824819100073502</v>
+        <v>4.552674449135038</v>
       </c>
       <c r="D13">
-        <v>7.25632276591338</v>
+        <v>7.841379722712754</v>
       </c>
       <c r="E13">
-        <v>9.269665360402476</v>
+        <v>9.429123148400521</v>
       </c>
       <c r="F13">
-        <v>23.32551385647625</v>
+        <v>20.77341348882272</v>
       </c>
       <c r="G13">
-        <v>26.46012888740123</v>
+        <v>23.8193920024891</v>
       </c>
       <c r="H13">
-        <v>5.61791408178646</v>
+        <v>5.583502876636291</v>
       </c>
       <c r="I13">
-        <v>3.776105208381</v>
+        <v>3.670975088240039</v>
       </c>
       <c r="J13">
-        <v>9.394048586349053</v>
+        <v>8.411616626612908</v>
       </c>
       <c r="K13">
-        <v>16.26322906772045</v>
+        <v>14.07230431418338</v>
       </c>
       <c r="L13">
-        <v>5.982518611299803</v>
+        <v>11.78577910143912</v>
       </c>
       <c r="M13">
-        <v>31.02072496045494</v>
+        <v>9.523887636151194</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.899418801928531</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>30.97417619595102</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,8 +1129,14 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,43 +1144,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.961718066192073</v>
+        <v>4.759578722322022</v>
       </c>
       <c r="D14">
-        <v>6.862170371205227</v>
+        <v>7.381451642991421</v>
       </c>
       <c r="E14">
-        <v>8.32863507557588</v>
+        <v>8.448420903042022</v>
       </c>
       <c r="F14">
-        <v>21.9168987822018</v>
+        <v>19.68621272126292</v>
       </c>
       <c r="G14">
-        <v>24.52673537487875</v>
+        <v>21.96202785403602</v>
       </c>
       <c r="H14">
-        <v>6.536425104918109</v>
+        <v>6.511129009314431</v>
       </c>
       <c r="I14">
-        <v>3.708994508072371</v>
+        <v>3.617994844227291</v>
       </c>
       <c r="J14">
-        <v>9.072160033361854</v>
+        <v>8.353143328827644</v>
       </c>
       <c r="K14">
-        <v>15.52010317421031</v>
+        <v>13.59592680952704</v>
       </c>
       <c r="L14">
-        <v>5.673220207895515</v>
+        <v>11.50332107439908</v>
       </c>
       <c r="M14">
-        <v>30.7402453230033</v>
+        <v>9.05608335177806</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.606277828949601</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>30.69900703566942</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,8 +1188,14 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,43 +1203,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.96164532937109</v>
+        <v>4.773114752096558</v>
       </c>
       <c r="D15">
-        <v>6.751781217701046</v>
+        <v>7.245735130904723</v>
       </c>
       <c r="E15">
-        <v>8.096210232483122</v>
+        <v>8.204461620885178</v>
       </c>
       <c r="F15">
-        <v>21.54498169116122</v>
+        <v>19.43718254875127</v>
       </c>
       <c r="G15">
-        <v>24.00812376519009</v>
+        <v>21.41416990014281</v>
       </c>
       <c r="H15">
-        <v>6.744319923308831</v>
+        <v>6.721619421493659</v>
       </c>
       <c r="I15">
-        <v>3.677250194686278</v>
+        <v>3.593416804551699</v>
       </c>
       <c r="J15">
-        <v>8.997080905398786</v>
+        <v>8.379609131398508</v>
       </c>
       <c r="K15">
-        <v>15.31973606983043</v>
+        <v>13.49222211108307</v>
       </c>
       <c r="L15">
-        <v>5.606491974635159</v>
+        <v>11.45114891847046</v>
       </c>
       <c r="M15">
-        <v>30.57140522994397</v>
+        <v>8.933666092950977</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.54512730729062</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>30.53263538263867</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,8 +1247,14 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,43 +1262,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.725022326415751</v>
+        <v>4.495210688480103</v>
       </c>
       <c r="D16">
-        <v>6.602777400548366</v>
+        <v>7.021884494103578</v>
       </c>
       <c r="E16">
-        <v>7.984781068159395</v>
+        <v>8.084341977601207</v>
       </c>
       <c r="F16">
-        <v>21.45641326191044</v>
+        <v>19.70061755829373</v>
       </c>
       <c r="G16">
-        <v>23.89476277394383</v>
+        <v>20.90671917531353</v>
       </c>
       <c r="H16">
-        <v>6.460031588123118</v>
+        <v>6.444143320600093</v>
       </c>
       <c r="I16">
-        <v>3.52086943580349</v>
+        <v>3.46801346277332</v>
       </c>
       <c r="J16">
-        <v>9.072151825661397</v>
+        <v>8.781120604942663</v>
       </c>
       <c r="K16">
-        <v>15.28682727151859</v>
+        <v>13.70416423626945</v>
       </c>
       <c r="L16">
-        <v>5.576282893678498</v>
+        <v>11.67134908931966</v>
       </c>
       <c r="M16">
-        <v>29.60247934117938</v>
+        <v>8.945919345737119</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.528661826790843</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>29.57450092218108</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,8 +1306,14 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,43 +1321,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.459047071780731</v>
+        <v>4.168608974396128</v>
       </c>
       <c r="D17">
-        <v>6.706160774082731</v>
+        <v>7.111052659418045</v>
       </c>
       <c r="E17">
-        <v>8.399306841222028</v>
+        <v>8.513051283151489</v>
       </c>
       <c r="F17">
-        <v>22.14454416558284</v>
+        <v>20.45565306611411</v>
       </c>
       <c r="G17">
-        <v>24.85312958111439</v>
+        <v>21.59087157047422</v>
       </c>
       <c r="H17">
-        <v>5.701471837324598</v>
+        <v>5.687334695999074</v>
       </c>
       <c r="I17">
-        <v>3.436246845906917</v>
+        <v>3.399192640900135</v>
       </c>
       <c r="J17">
-        <v>9.297265868627397</v>
+        <v>9.110084280023599</v>
       </c>
       <c r="K17">
-        <v>15.65797300058517</v>
+        <v>14.10194153283933</v>
       </c>
       <c r="L17">
-        <v>5.702647999561766</v>
+        <v>11.9881946831434</v>
       </c>
       <c r="M17">
-        <v>28.99862680040538</v>
+        <v>9.18685049600146</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.657160687713392</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>28.97581232749018</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,8 +1365,14 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,43 +1380,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.171167551565143</v>
+        <v>3.777574021225225</v>
       </c>
       <c r="D18">
-        <v>7.033107237658526</v>
+        <v>7.462807899411283</v>
       </c>
       <c r="E18">
-        <v>9.3915339789291</v>
+        <v>9.532831839307697</v>
       </c>
       <c r="F18">
-        <v>23.6216884451322</v>
+        <v>21.81349020058158</v>
       </c>
       <c r="G18">
-        <v>26.90517900218183</v>
+        <v>23.30101295697301</v>
       </c>
       <c r="H18">
-        <v>4.483610673149109</v>
+        <v>4.46653719260915</v>
       </c>
       <c r="I18">
-        <v>3.404561842668864</v>
+        <v>3.371131346211664</v>
       </c>
       <c r="J18">
-        <v>9.69423069086737</v>
+        <v>9.487817094785001</v>
       </c>
       <c r="K18">
-        <v>16.45536540115175</v>
+        <v>14.77191679210258</v>
       </c>
       <c r="L18">
-        <v>6.062834282806045</v>
+        <v>12.47713350963154</v>
       </c>
       <c r="M18">
-        <v>28.65537762165196</v>
+        <v>9.696478521170032</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.011106009423552</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>28.63377204968326</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,8 +1424,14 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,43 +1439,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.837017594967094</v>
+        <v>3.321029861912655</v>
       </c>
       <c r="D19">
-        <v>7.531362117595515</v>
+        <v>8.008400583051051</v>
       </c>
       <c r="E19">
-        <v>10.84864978375311</v>
+        <v>11.02149632877255</v>
       </c>
       <c r="F19">
-        <v>25.55540360057255</v>
+        <v>23.52140647138391</v>
       </c>
       <c r="G19">
-        <v>29.54162181966277</v>
+        <v>25.53955746891895</v>
       </c>
       <c r="H19">
-        <v>3.13690534721214</v>
+        <v>3.109022850915719</v>
       </c>
       <c r="I19">
-        <v>3.426519742205345</v>
+        <v>3.389012303056969</v>
       </c>
       <c r="J19">
-        <v>10.18632185035538</v>
+        <v>9.892425004891178</v>
       </c>
       <c r="K19">
-        <v>17.47056403718411</v>
+        <v>15.57144990091523</v>
       </c>
       <c r="L19">
-        <v>6.680308967359077</v>
+        <v>13.04379938926543</v>
       </c>
       <c r="M19">
-        <v>28.55263741611301</v>
+        <v>10.34342129014525</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.617351372575995</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>28.52908061730967</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,8 +1483,14 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,43 +1498,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.51926754922526</v>
+        <v>2.841567390847465</v>
       </c>
       <c r="D20">
-        <v>8.431131921635478</v>
+        <v>9.015905910020077</v>
       </c>
       <c r="E20">
-        <v>13.37558562036826</v>
+        <v>13.5971757974445</v>
       </c>
       <c r="F20">
-        <v>28.78860354331195</v>
+        <v>26.2295612374858</v>
       </c>
       <c r="G20">
-        <v>33.90416645649819</v>
+        <v>29.34991923204516</v>
       </c>
       <c r="H20">
-        <v>2.260555748785416</v>
+        <v>2.194423491526211</v>
       </c>
       <c r="I20">
-        <v>3.588153002665651</v>
+        <v>3.520557574331693</v>
       </c>
       <c r="J20">
-        <v>10.96989389123893</v>
+        <v>10.36314899403299</v>
       </c>
       <c r="K20">
-        <v>19.17303325548318</v>
+        <v>16.80225037554348</v>
       </c>
       <c r="L20">
-        <v>7.889138552941042</v>
+        <v>13.84686015446194</v>
       </c>
       <c r="M20">
-        <v>29.13213488421318</v>
+        <v>11.45239394137138</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.80085992355181</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>29.09743963833378</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,8 +1542,14 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,43 +1557,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.828337960117391</v>
+        <v>3.217723900319254</v>
       </c>
       <c r="D21">
-        <v>8.930127375129677</v>
+        <v>9.695691443517862</v>
       </c>
       <c r="E21">
-        <v>14.24985391813835</v>
+        <v>14.53021137304745</v>
       </c>
       <c r="F21">
-        <v>29.97428756173824</v>
+        <v>26.54577941761282</v>
       </c>
       <c r="G21">
-        <v>35.45461489970504</v>
+        <v>31.68727704907907</v>
       </c>
       <c r="H21">
-        <v>2.624388140447137</v>
+        <v>2.516608323173674</v>
       </c>
       <c r="I21">
-        <v>3.895768085193564</v>
+        <v>3.765949421961964</v>
       </c>
       <c r="J21">
-        <v>11.13292032574677</v>
+        <v>9.480735395781313</v>
       </c>
       <c r="K21">
-        <v>19.7868438071571</v>
+        <v>16.76915244924473</v>
       </c>
       <c r="L21">
-        <v>8.275627846155928</v>
+        <v>13.61093060349982</v>
       </c>
       <c r="M21">
-        <v>30.9029699972947</v>
+        <v>11.76367429616772</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.149372273467444</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>30.84523184679878</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,8 +1601,14 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,43 +1616,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.074377143087956</v>
+        <v>3.516363400344</v>
       </c>
       <c r="D22">
-        <v>9.198923802381429</v>
+        <v>10.08331723986877</v>
       </c>
       <c r="E22">
-        <v>14.68890435052573</v>
+        <v>15.00824160773658</v>
       </c>
       <c r="F22">
-        <v>30.66023384594697</v>
+        <v>26.65043353023935</v>
       </c>
       <c r="G22">
-        <v>36.37666142074222</v>
+        <v>33.23302834351238</v>
       </c>
       <c r="H22">
-        <v>2.851259745528094</v>
+        <v>2.717013715675785</v>
       </c>
       <c r="I22">
-        <v>4.089224689637798</v>
+        <v>3.918496474536643</v>
       </c>
       <c r="J22">
-        <v>11.22751954475032</v>
+        <v>8.888234962583306</v>
       </c>
       <c r="K22">
-        <v>20.16581145141496</v>
+        <v>16.71481832751133</v>
       </c>
       <c r="L22">
-        <v>8.46706753007261</v>
+        <v>13.43345479334467</v>
       </c>
       <c r="M22">
-        <v>32.01052682309825</v>
+        <v>11.9472738987934</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.316432613043524</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>31.93770583831664</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,8 +1660,14 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,43 +1675,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.977274707231053</v>
+        <v>3.367161884965993</v>
       </c>
       <c r="D23">
-        <v>9.044943870677104</v>
+        <v>9.85243070773452</v>
       </c>
       <c r="E23">
-        <v>14.45158727866099</v>
+        <v>14.74451861824284</v>
       </c>
       <c r="F23">
-        <v>30.34567184450714</v>
+        <v>26.70351611175648</v>
       </c>
       <c r="G23">
-        <v>35.97545900436108</v>
+        <v>32.34465586951379</v>
       </c>
       <c r="H23">
-        <v>2.731793435761431</v>
+        <v>2.61246869198683</v>
       </c>
       <c r="I23">
-        <v>3.984783912374489</v>
+        <v>3.835399483946471</v>
       </c>
       <c r="J23">
-        <v>11.19496340188318</v>
+        <v>9.308519997858781</v>
       </c>
       <c r="K23">
-        <v>20.01204871850687</v>
+        <v>16.82687147974732</v>
       </c>
       <c r="L23">
-        <v>8.367080241627505</v>
+        <v>13.5844772419992</v>
       </c>
       <c r="M23">
-        <v>31.42451648703549</v>
+        <v>11.91721689787383</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.231120318976238</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>31.36018092916786</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,8 +1719,14 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,43 +1734,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.539593378994615</v>
+        <v>2.8422728162788</v>
       </c>
       <c r="D24">
-        <v>8.460910485105607</v>
+        <v>9.05076844035935</v>
       </c>
       <c r="E24">
-        <v>13.52961419717534</v>
+        <v>13.75392999586528</v>
       </c>
       <c r="F24">
-        <v>29.07382171589499</v>
+        <v>26.48844334885045</v>
       </c>
       <c r="G24">
-        <v>34.325521074649</v>
+        <v>29.7115481470041</v>
       </c>
       <c r="H24">
-        <v>2.269872137517071</v>
+        <v>2.202963961112943</v>
       </c>
       <c r="I24">
-        <v>3.585803822691178</v>
+        <v>3.515570928536275</v>
       </c>
       <c r="J24">
-        <v>11.05448257897538</v>
+        <v>10.43958682749402</v>
       </c>
       <c r="K24">
-        <v>19.35836379785382</v>
+        <v>16.95836236716814</v>
       </c>
       <c r="L24">
-        <v>7.975869970076581</v>
+        <v>13.96004374972054</v>
       </c>
       <c r="M24">
-        <v>29.10624828290923</v>
+        <v>11.57464708354551</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.886543377625001</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>29.07124015016777</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,8 +1778,14 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.029197081185658</v>
+        <v>2.461284542883003</v>
       </c>
       <c r="D25">
-        <v>7.790538984672701</v>
+        <v>8.301044507750838</v>
       </c>
       <c r="E25">
-        <v>12.47089876473525</v>
+        <v>12.68436488068157</v>
       </c>
       <c r="F25">
-        <v>27.71095802328734</v>
+        <v>25.57518567379219</v>
       </c>
       <c r="G25">
-        <v>32.58542060186127</v>
+        <v>28.54221979890844</v>
       </c>
       <c r="H25">
-        <v>1.754330402511626</v>
+        <v>1.731028762047611</v>
       </c>
       <c r="I25">
-        <v>3.143557848181273</v>
+        <v>3.146556463912046</v>
       </c>
       <c r="J25">
-        <v>10.92884558282484</v>
+        <v>10.49292884048155</v>
       </c>
       <c r="K25">
-        <v>18.67060005471902</v>
+        <v>16.65908908336233</v>
       </c>
       <c r="L25">
-        <v>7.533549306613914</v>
+        <v>14.04701151895682</v>
       </c>
       <c r="M25">
-        <v>26.39356237998738</v>
+        <v>10.88263778371596</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.473889475597724</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>26.38246162271176</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
